--- a/Tables/Sources/gameplay/Visitor/VisitorRewardConfig.xlsx
+++ b/Tables/Sources/gameplay/Visitor/VisitorRewardConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="30710" windowHeight="11540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>ID</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Reward</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
   <si>
     <t>Weight</t>
@@ -205,9 +208,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -226,16 +229,66 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,10 +303,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -265,8 +326,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,51 +336,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,13 +350,14 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -354,21 +372,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -385,37 +388,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,145 +562,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,30 +593,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,6 +638,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -668,11 +665,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,10 +700,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -709,133 +712,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1201,19 +1204,20 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1272727272727" style="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="21.3636363636364" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="14.25" spans="1:5">
+    <row r="1" s="2" customFormat="1" ht="13.5" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1230,7 +1234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="14.25" spans="1:5">
+    <row r="2" s="2" customFormat="1" ht="13.5" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1247,7 +1251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="14.25" spans="1:5">
+    <row r="3" s="2" customFormat="1" ht="13.5" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1264,7 +1268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="14.25" spans="1:5">
+    <row r="4" s="2" customFormat="1" ht="13.5" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1274,8 +1278,11 @@
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1286,10 +1293,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1">
         <v>10</v>
@@ -1303,10 +1310,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1">
         <v>10</v>
@@ -1320,10 +1327,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1">
         <v>10</v>
@@ -1337,10 +1344,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1">
         <v>10</v>
@@ -1354,10 +1361,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
@@ -1372,10 +1379,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1">
         <v>10</v>
@@ -1390,10 +1397,10 @@
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" s="1">
         <v>10</v>
@@ -1407,10 +1414,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
@@ -1424,10 +1431,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13" s="1">
         <v>10</v>
@@ -1441,10 +1448,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
@@ -1459,10 +1466,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15" s="1">
         <v>10</v>
@@ -1477,10 +1484,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E16" s="1">
         <v>10</v>
@@ -1494,10 +1501,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E17" s="1">
         <v>10</v>
@@ -1511,10 +1518,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18" s="1">
         <v>10</v>
@@ -1528,10 +1535,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19" s="1">
         <v>10</v>
@@ -1545,10 +1552,10 @@
         <v>3</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E20" s="1">
         <v>10</v>
@@ -1562,10 +1569,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E21" s="1">
         <v>10</v>
@@ -1580,10 +1587,10 @@
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E22" s="1">
         <v>10</v>
@@ -1598,10 +1605,10 @@
         <v>4</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E23" s="1">
         <v>10</v>
@@ -1615,10 +1622,10 @@
         <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E24" s="1">
         <v>10</v>
@@ -1632,10 +1639,10 @@
         <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E25" s="1">
         <v>10</v>
@@ -1649,10 +1656,10 @@
         <v>4</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E26" s="1">
         <v>10</v>
@@ -1666,10 +1673,10 @@
         <v>4</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E27" s="1">
         <v>10</v>
@@ -1683,10 +1690,10 @@
         <v>4</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E28" s="1">
         <v>10</v>
@@ -1701,10 +1708,10 @@
         <v>5</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E29" s="1">
         <v>10</v>
@@ -1719,10 +1726,10 @@
         <v>5</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E30" s="1">
         <v>10</v>
@@ -1736,10 +1743,10 @@
         <v>5</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E31" s="1">
         <v>10</v>
@@ -1753,10 +1760,10 @@
         <v>5</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E32" s="1">
         <v>10</v>
@@ -1770,10 +1777,10 @@
         <v>5</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E33" s="1">
         <v>10</v>
@@ -1787,10 +1794,10 @@
         <v>5</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E34" s="1">
         <v>10</v>
@@ -1804,10 +1811,10 @@
         <v>5</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E35" s="1">
         <v>10</v>
@@ -1822,10 +1829,10 @@
         <v>6</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E36" s="1">
         <v>10</v>
@@ -1840,10 +1847,10 @@
         <v>6</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E37" s="1">
         <v>10</v>
@@ -1857,10 +1864,10 @@
         <v>6</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E38" s="1">
         <v>10</v>
@@ -1874,10 +1881,10 @@
         <v>6</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E39" s="1">
         <v>10</v>
@@ -1891,10 +1898,10 @@
         <v>6</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E40" s="1">
         <v>10</v>
@@ -1908,10 +1915,10 @@
         <v>6</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E41" s="1">
         <v>10</v>
@@ -1925,10 +1932,10 @@
         <v>6</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E42" s="1">
         <v>10</v>
@@ -1943,10 +1950,10 @@
         <v>7</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E43" s="1">
         <v>10</v>
@@ -1961,10 +1968,10 @@
         <v>7</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E44" s="1">
         <v>10</v>
@@ -1978,10 +1985,10 @@
         <v>7</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E45" s="1">
         <v>10</v>
@@ -1995,10 +2002,10 @@
         <v>7</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E46" s="1">
         <v>10</v>
@@ -2012,10 +2019,10 @@
         <v>7</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E47" s="1">
         <v>10</v>
@@ -2029,10 +2036,10 @@
         <v>7</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E48" s="1">
         <v>10</v>
@@ -2046,10 +2053,10 @@
         <v>7</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E49" s="1">
         <v>10</v>
@@ -2064,10 +2071,10 @@
         <v>8</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E50" s="1">
         <v>10</v>
@@ -2082,10 +2089,10 @@
         <v>8</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E51" s="1">
         <v>10</v>
@@ -2099,10 +2106,10 @@
         <v>8</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E52" s="1">
         <v>10</v>
@@ -2116,10 +2123,10 @@
         <v>8</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E53" s="1">
         <v>10</v>
@@ -2133,10 +2140,10 @@
         <v>8</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E54" s="1">
         <v>10</v>
@@ -2150,10 +2157,10 @@
         <v>8</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E55" s="1">
         <v>10</v>
@@ -2167,10 +2174,10 @@
         <v>8</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E56" s="1">
         <v>10</v>
@@ -2195,12 +2202,12 @@
       <selection activeCell="H14" sqref="A14:A19 H14:I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -2470,7 +2477,7 @@
     <row r="11" spans="1:12">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2500,7 +2507,7 @@
         <v>Item|1001|20</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f>"Item|"&amp;J$13&amp;"|"&amp;$B12</f>
+        <f t="shared" ref="G12:G17" si="2">"Item|"&amp;J$13&amp;"|"&amp;$B12</f>
         <v>Item|1002|20</v>
       </c>
       <c r="I12" s="1"/>
@@ -2508,10 +2515,10 @@
         <v>1001</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2527,11 +2534,11 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="str">
-        <f t="shared" ref="F13:F17" si="2">"Item|"&amp;J$12&amp;"|"&amp;B13</f>
+        <f t="shared" ref="F13:F17" si="3">"Item|"&amp;J$12&amp;"|"&amp;B13</f>
         <v>Item|1001|100</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f>"Item|"&amp;J$13&amp;"|"&amp;$B13</f>
+        <f t="shared" si="2"/>
         <v>Item|1002|100</v>
       </c>
       <c r="I13" s="1"/>
@@ -2539,10 +2546,10 @@
         <v>1002</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2562,29 +2569,29 @@
         <v>1</v>
       </c>
       <c r="F14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Item|1001|250</v>
+      </c>
+      <c r="G14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Item|1001|250</v>
-      </c>
-      <c r="G14" s="1" t="str">
-        <f>"Item|"&amp;J$13&amp;"|"&amp;$B14</f>
         <v>Item|1002|250</v>
       </c>
       <c r="H14" s="1" t="str">
-        <f>"Item|"&amp;J$14&amp;"|"&amp;$C14</f>
+        <f t="shared" ref="H14:H19" si="4">"Item|"&amp;J$14&amp;"|"&amp;$C14</f>
         <v>Item|1003|20</v>
       </c>
       <c r="I14" s="1" t="str">
-        <f t="shared" ref="I14:I19" si="3">"Item|"&amp;J$15&amp;"|"&amp;$C14</f>
+        <f t="shared" ref="I14:I19" si="5">"Item|"&amp;J$15&amp;"|"&amp;$C14</f>
         <v>Item|1004|20</v>
       </c>
       <c r="J14" s="1">
         <v>1003</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2604,29 +2611,29 @@
         <v>1.5</v>
       </c>
       <c r="F15" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Item|1001|800</v>
+      </c>
+      <c r="G15" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Item|1001|800</v>
-      </c>
-      <c r="G15" s="1" t="str">
-        <f>"Item|"&amp;J$13&amp;"|"&amp;$B15</f>
         <v>Item|1002|800</v>
       </c>
       <c r="H15" s="1" t="str">
-        <f>"Item|"&amp;J$14&amp;"|"&amp;$C15</f>
+        <f t="shared" si="4"/>
         <v>Item|1003|100</v>
       </c>
       <c r="I15" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Item|1004|100</v>
       </c>
       <c r="J15" s="1">
         <v>1004</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2646,19 +2653,19 @@
         <v>2.4</v>
       </c>
       <c r="F16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Item|1001|1500</v>
+      </c>
+      <c r="G16" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Item|1001|1500</v>
-      </c>
-      <c r="G16" s="1" t="str">
-        <f>"Item|"&amp;J$13&amp;"|"&amp;$B16</f>
         <v>Item|1002|1500</v>
       </c>
       <c r="H16" s="1" t="str">
-        <f>"Item|"&amp;J$14&amp;"|"&amp;$C16</f>
+        <f t="shared" si="4"/>
         <v>Item|1003|250</v>
       </c>
       <c r="I16" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Item|1004|250</v>
       </c>
       <c r="J16" s="1"/>
@@ -2682,19 +2689,19 @@
         <v>3.1</v>
       </c>
       <c r="F17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Item|1001|2500</v>
+      </c>
+      <c r="G17" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Item|1001|2500</v>
-      </c>
-      <c r="G17" s="1" t="str">
-        <f>"Item|"&amp;J$13&amp;"|"&amp;$B17</f>
         <v>Item|1002|2500</v>
       </c>
       <c r="H17" s="1" t="str">
-        <f>"Item|"&amp;J$14&amp;"|"&amp;$C17</f>
+        <f t="shared" si="4"/>
         <v>Item|1003|800</v>
       </c>
       <c r="I17" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Item|1004|800</v>
       </c>
       <c r="J17" s="1"/>
@@ -2715,11 +2722,11 @@
       </c>
       <c r="F18" s="1"/>
       <c r="H18" s="1" t="str">
-        <f>"Item|"&amp;J$14&amp;"|"&amp;$C18</f>
+        <f t="shared" si="4"/>
         <v>Item|1003|1500</v>
       </c>
       <c r="I18" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Item|1004|1500</v>
       </c>
       <c r="J18" s="1"/>
@@ -2740,11 +2747,11 @@
       </c>
       <c r="F19" s="1"/>
       <c r="H19" s="1" t="str">
-        <f>"Item|"&amp;J$14&amp;"|"&amp;$C19</f>
+        <f t="shared" si="4"/>
         <v>Item|1003|2500</v>
       </c>
       <c r="I19" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Item|1004|2500</v>
       </c>
       <c r="J19" s="1"/>

--- a/Tables/Sources/gameplay/Visitor/VisitorRewardConfig.xlsx
+++ b/Tables/Sources/gameplay/Visitor/VisitorRewardConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30710" windowHeight="11540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$4:$D$20</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -74,133 +75,37 @@
     <t>金牌招募令</t>
   </si>
   <si>
-    <t>Coin|50</t>
-  </si>
-  <si>
-    <t>铜钱</t>
-  </si>
-  <si>
-    <t>Item|1001|20</t>
+    <t>Kongfu|</t>
+  </si>
+  <si>
+    <t>Coin</t>
+  </si>
+  <si>
+    <t>Wood/Rock</t>
+  </si>
+  <si>
+    <t>QingRock</t>
   </si>
   <si>
     <t>青岩</t>
   </si>
   <si>
-    <t>Item|1002|20</t>
+    <t>WuWood</t>
   </si>
   <si>
     <t>乌木</t>
   </si>
   <si>
-    <t>Coin|400</t>
-  </si>
-  <si>
-    <t>Item|1001|100</t>
-  </si>
-  <si>
-    <t>Item|1002|100</t>
-  </si>
-  <si>
-    <t>Coin|1200</t>
-  </si>
-  <si>
-    <t>Item|1001|250</t>
-  </si>
-  <si>
-    <t>Item|1002|250</t>
-  </si>
-  <si>
-    <t>Item|1003|20</t>
+    <t>CloudRock</t>
   </si>
   <si>
     <t>云岩</t>
   </si>
   <si>
-    <t>Item|1004|20</t>
+    <t>SilverWood</t>
   </si>
   <si>
     <t>银木</t>
-  </si>
-  <si>
-    <t>Coin|3000</t>
-  </si>
-  <si>
-    <t>Item|1001|800</t>
-  </si>
-  <si>
-    <t>Item|1002|800</t>
-  </si>
-  <si>
-    <t>Item|1003|100</t>
-  </si>
-  <si>
-    <t>Item|1004|100</t>
-  </si>
-  <si>
-    <t>Coin|10000</t>
-  </si>
-  <si>
-    <t>Item|1001|1500</t>
-  </si>
-  <si>
-    <t>Item|1002|1500</t>
-  </si>
-  <si>
-    <t>Item|1003|250</t>
-  </si>
-  <si>
-    <t>Item|1004|250</t>
-  </si>
-  <si>
-    <t>Coin|30000</t>
-  </si>
-  <si>
-    <t>Item|1001|2500</t>
-  </si>
-  <si>
-    <t>Item|1002|2500</t>
-  </si>
-  <si>
-    <t>Item|1003|800</t>
-  </si>
-  <si>
-    <t>Item|1004|800</t>
-  </si>
-  <si>
-    <t>Coin|60000</t>
-  </si>
-  <si>
-    <t>Item|1003|1500</t>
-  </si>
-  <si>
-    <t>Item|1004|1500</t>
-  </si>
-  <si>
-    <t>Coin|120000</t>
-  </si>
-  <si>
-    <t>Item|1003|2500</t>
-  </si>
-  <si>
-    <t>Item|1004|2500</t>
-  </si>
-  <si>
-    <t>Coin</t>
-  </si>
-  <si>
-    <t>Wood/Rock</t>
-  </si>
-  <si>
-    <t>QingRock</t>
-  </si>
-  <si>
-    <t>WuWood</t>
-  </si>
-  <si>
-    <t>CloudRock</t>
-  </si>
-  <si>
-    <t>SilverWood</t>
   </si>
 </sst>
 </file>
@@ -209,8 +114,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -229,22 +134,8 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -260,7 +151,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,21 +180,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,14 +188,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -318,14 +210,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -335,7 +219,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,25 +271,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,187 +293,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,7 +506,61 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,35 +580,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,46 +599,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -712,133 +617,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1199,25 +1104,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1272727272727" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.3636363636364" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.3666666666667" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="13.5" spans="1:5">
+    <row r="1" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1234,7 +1139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="13.5" spans="1:5">
+    <row r="2" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1251,7 +1156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="13.5" spans="1:5">
+    <row r="3" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1268,7 +1173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="13.5" spans="1:5">
+    <row r="4" s="2" customFormat="1" ht="14.25" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1324,13 +1229,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1">
         <v>10</v>
@@ -1341,13 +1246,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1">
         <v>10</v>
@@ -1358,13 +1263,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
@@ -1375,14 +1280,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="3">
-        <f>B8+1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1">
         <v>10</v>
@@ -1393,14 +1297,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="3">
-        <f>B9+1</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1">
         <v>10</v>
@@ -1411,13 +1314,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
@@ -1428,13 +1331,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E13" s="1">
         <v>10</v>
@@ -1445,13 +1348,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E14" s="1">
         <v>10</v>
@@ -1462,8 +1365,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="3">
-        <f>B13+1</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>14</v>
@@ -1480,8 +1382,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="3">
-        <f>B14+1</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>16</v>
@@ -1498,13 +1399,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E17" s="1">
         <v>10</v>
@@ -1515,33 +1416,36 @@
         <v>14</v>
       </c>
       <c r="B18" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E18" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>15</v>
       </c>
       <c r="B19" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E19" s="1">
         <v>10</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1549,637 +1453,15 @@
         <v>16</v>
       </c>
       <c r="B20" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E20" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1">
-        <v>17</v>
-      </c>
-      <c r="B21" s="3">
-        <v>3</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1">
-        <v>18</v>
-      </c>
-      <c r="B22" s="3">
-        <f>B20+1</f>
-        <v>4</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1">
-        <v>19</v>
-      </c>
-      <c r="B23" s="3">
-        <f>B21+1</f>
-        <v>4</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1">
-        <v>20</v>
-      </c>
-      <c r="B24" s="1">
-        <v>4</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1">
-        <v>21</v>
-      </c>
-      <c r="B25" s="3">
-        <v>4</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1">
-        <v>22</v>
-      </c>
-      <c r="B26" s="3">
-        <v>4</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1">
-        <v>23</v>
-      </c>
-      <c r="B27" s="3">
-        <v>4</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1">
-        <v>24</v>
-      </c>
-      <c r="B28" s="3">
-        <v>4</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1">
-        <v>25</v>
-      </c>
-      <c r="B29" s="3">
-        <f>B27+1</f>
-        <v>5</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1">
-        <v>26</v>
-      </c>
-      <c r="B30" s="3">
-        <f>B28+1</f>
-        <v>5</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1">
-        <v>27</v>
-      </c>
-      <c r="B31" s="3">
-        <v>5</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1">
-        <v>28</v>
-      </c>
-      <c r="B32" s="3">
-        <v>5</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1">
-        <v>29</v>
-      </c>
-      <c r="B33" s="3">
-        <v>5</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1">
-        <v>30</v>
-      </c>
-      <c r="B34" s="3">
-        <v>5</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1">
-        <v>31</v>
-      </c>
-      <c r="B35" s="3">
-        <v>5</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1">
-        <v>32</v>
-      </c>
-      <c r="B36" s="3">
-        <f>B34+1</f>
-        <v>6</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1">
-        <v>33</v>
-      </c>
-      <c r="B37" s="3">
-        <f>B35+1</f>
-        <v>6</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1">
-        <v>34</v>
-      </c>
-      <c r="B38" s="3">
-        <v>6</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="1">
-        <v>35</v>
-      </c>
-      <c r="B39" s="3">
-        <v>6</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="1">
-        <v>36</v>
-      </c>
-      <c r="B40" s="3">
-        <v>6</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="1">
-        <v>37</v>
-      </c>
-      <c r="B41" s="3">
-        <v>6</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E41" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="1">
-        <v>38</v>
-      </c>
-      <c r="B42" s="3">
-        <v>6</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="1">
-        <v>39</v>
-      </c>
-      <c r="B43" s="3">
-        <f>B41+1</f>
-        <v>7</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="1">
-        <v>40</v>
-      </c>
-      <c r="B44" s="3">
-        <f>B42+1</f>
-        <v>7</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="1">
-        <v>41</v>
-      </c>
-      <c r="B45" s="3">
-        <v>7</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="1">
-        <v>42</v>
-      </c>
-      <c r="B46" s="3">
-        <v>7</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="1">
-        <v>43</v>
-      </c>
-      <c r="B47" s="3">
-        <v>7</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="1">
-        <v>44</v>
-      </c>
-      <c r="B48" s="3">
-        <v>7</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E48" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="1">
-        <v>45</v>
-      </c>
-      <c r="B49" s="3">
-        <v>7</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E49" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="1">
-        <v>46</v>
-      </c>
-      <c r="B50" s="3">
-        <f>B48+1</f>
-        <v>8</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="1">
-        <v>47</v>
-      </c>
-      <c r="B51" s="3">
-        <f>B49+1</f>
-        <v>8</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E51" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="1">
-        <v>48</v>
-      </c>
-      <c r="B52" s="3">
-        <v>8</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E52" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="1">
-        <v>49</v>
-      </c>
-      <c r="B53" s="3">
-        <v>8</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E53" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="1">
-        <v>50</v>
-      </c>
-      <c r="B54" s="3">
-        <v>8</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E54" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="1">
-        <v>51</v>
-      </c>
-      <c r="B55" s="3">
-        <v>8</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E55" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="1">
-        <v>52</v>
-      </c>
-      <c r="B56" s="1">
-        <v>8</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E56" s="1">
         <v>10</v>
       </c>
     </row>
@@ -2199,15 +1481,15 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="A14:A19 H14:I19"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -2477,7 +1759,7 @@
     <row r="11" spans="1:12">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2515,10 +1797,10 @@
         <v>1001</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2546,10 +1828,10 @@
         <v>1002</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2588,10 +1870,10 @@
         <v>1003</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2630,10 +1912,10 @@
         <v>1004</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:12">

--- a/Tables/Sources/gameplay/Visitor/VisitorRewardConfig.xlsx
+++ b/Tables/Sources/gameplay/Visitor/VisitorRewardConfig.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="89">
   <si>
     <t>ID</t>
   </si>
@@ -69,13 +69,205 @@
     <t>银牌招募令</t>
   </si>
   <si>
+    <t>青岩</t>
+  </si>
+  <si>
+    <t>乌木</t>
+  </si>
+  <si>
+    <t>云岩</t>
+  </si>
+  <si>
+    <t>银木</t>
+  </si>
+  <si>
     <t>Item|2002|1</t>
   </si>
   <si>
     <t>金牌招募令</t>
   </si>
   <si>
-    <t>Kongfu|</t>
+    <t>Item|1001|50</t>
+  </si>
+  <si>
+    <t>Item|1002|50</t>
+  </si>
+  <si>
+    <t>Coin|100</t>
+  </si>
+  <si>
+    <t>铜钱</t>
+  </si>
+  <si>
+    <t>Item|1001|125</t>
+  </si>
+  <si>
+    <t>Item|1002|125</t>
+  </si>
+  <si>
+    <t>Coin|500</t>
+  </si>
+  <si>
+    <t>孔雀石</t>
+  </si>
+  <si>
+    <t>红玛瑙</t>
+  </si>
+  <si>
+    <t>紫龙晶</t>
+  </si>
+  <si>
+    <t>金丝</t>
+  </si>
+  <si>
+    <t>龙鳞</t>
+  </si>
+  <si>
+    <t>Item|1001|300</t>
+  </si>
+  <si>
+    <t>Item|1002|300</t>
+  </si>
+  <si>
+    <t>Item|1003|50</t>
+  </si>
+  <si>
+    <t>Item|1004|50</t>
+  </si>
+  <si>
+    <t>Coin|1000</t>
+  </si>
+  <si>
+    <t>1_2</t>
+  </si>
+  <si>
+    <t>2_3</t>
+  </si>
+  <si>
+    <t>2_4</t>
+  </si>
+  <si>
+    <t>Item|1001|750</t>
+  </si>
+  <si>
+    <t>3_4</t>
+  </si>
+  <si>
+    <t>Item|1002|750</t>
+  </si>
+  <si>
+    <t>3_5</t>
+  </si>
+  <si>
+    <t>4_6</t>
+  </si>
+  <si>
+    <t>Item|1003|125</t>
+  </si>
+  <si>
+    <t>Item|1004|125</t>
+  </si>
+  <si>
+    <t>Item|3001|1_2</t>
+  </si>
+  <si>
+    <t>Coin|2500</t>
+  </si>
+  <si>
+    <t>Item|1001|2000</t>
+  </si>
+  <si>
+    <t>Item|1002|2000</t>
+  </si>
+  <si>
+    <t>Item|1003|300</t>
+  </si>
+  <si>
+    <t>Item|1004|300</t>
+  </si>
+  <si>
+    <t>Item|3001|2_3</t>
+  </si>
+  <si>
+    <t>Item|3002|1_2</t>
+  </si>
+  <si>
+    <t>Coin|6000</t>
+  </si>
+  <si>
+    <t>Item|1001|5000</t>
+  </si>
+  <si>
+    <t>Item|1002|5000</t>
+  </si>
+  <si>
+    <t>Item|1003|750</t>
+  </si>
+  <si>
+    <t>Item|1004|750</t>
+  </si>
+  <si>
+    <t>Item|3001|2_4</t>
+  </si>
+  <si>
+    <t>Item|3002|2_3</t>
+  </si>
+  <si>
+    <t>Item|3003|1_2</t>
+  </si>
+  <si>
+    <t>Item|3102|2_3</t>
+  </si>
+  <si>
+    <t>Coin|15000</t>
+  </si>
+  <si>
+    <t>Item|1003|2000</t>
+  </si>
+  <si>
+    <t>Item|1004|2000</t>
+  </si>
+  <si>
+    <t>Item|3001|3_4</t>
+  </si>
+  <si>
+    <t>Item|3002|2_4</t>
+  </si>
+  <si>
+    <t>Item|3003|2_3</t>
+  </si>
+  <si>
+    <t>Item|3102|3_4</t>
+  </si>
+  <si>
+    <t>Item|3101|3_4</t>
+  </si>
+  <si>
+    <t>Coin|25000</t>
+  </si>
+  <si>
+    <t>Item|1003|5000</t>
+  </si>
+  <si>
+    <t>Item|1004|5000</t>
+  </si>
+  <si>
+    <t>Item|3001|3_5</t>
+  </si>
+  <si>
+    <t>Item|3002|3_4</t>
+  </si>
+  <si>
+    <t>Item|3003|2_4</t>
+  </si>
+  <si>
+    <t>Item|3102|4_6</t>
+  </si>
+  <si>
+    <t>Item|3101|4_6</t>
+  </si>
+  <si>
+    <t>Coin|40000</t>
   </si>
   <si>
     <t>Coin</t>
@@ -87,25 +279,13 @@
     <t>QingRock</t>
   </si>
   <si>
-    <t>青岩</t>
-  </si>
-  <si>
     <t>WuWood</t>
   </si>
   <si>
-    <t>乌木</t>
-  </si>
-  <si>
     <t>CloudRock</t>
   </si>
   <si>
-    <t>云岩</t>
-  </si>
-  <si>
     <t>SilverWood</t>
-  </si>
-  <si>
-    <t>银木</t>
   </si>
 </sst>
 </file>
@@ -134,24 +314,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,6 +336,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -180,15 +376,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,32 +397,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,22 +421,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,8 +450,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,13 +473,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,19 +533,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,19 +563,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,79 +599,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,31 +617,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,6 +682,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -521,6 +716,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -535,32 +754,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,36 +779,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -617,133 +797,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1104,22 +1284,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:T65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.3666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="10.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="1" customWidth="1"/>
+    <col min="6" max="11" width="9" style="1"/>
+    <col min="12" max="13" width="16" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="1"/>
+    <col min="15" max="16" width="16" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="14.25" spans="1:5">
@@ -1190,7 +1374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1204,10 +1388,22 @@
         <v>15</v>
       </c>
       <c r="E5" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1215,149 +1411,365 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="L6" s="1">
+        <v>1001</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1002</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1003</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="3">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3">
+        <v>30</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <f>S7*2.5</f>
+        <v>50</v>
+      </c>
+      <c r="L7" s="1" t="str">
+        <f>"Item|"&amp;L$6&amp;"|"&amp;$K7</f>
+        <v>Item|1001|50</v>
+      </c>
+      <c r="M7" s="1" t="str">
+        <f>"Item|"&amp;M$6&amp;"|"&amp;$K7</f>
+        <v>Item|1002|50</v>
+      </c>
+      <c r="S7" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="3">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="3">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2</v>
+      </c>
+      <c r="K8" s="1">
+        <f>S8*2.5</f>
+        <v>125</v>
+      </c>
+      <c r="L8" s="1" t="str">
+        <f>"Item|"&amp;L$6&amp;"|"&amp;$K8</f>
+        <v>Item|1001|125</v>
+      </c>
+      <c r="M8" s="1" t="str">
+        <f>"Item|"&amp;M$6&amp;"|"&amp;$K8</f>
+        <v>Item|1002|125</v>
+      </c>
+      <c r="S8" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="3">
+        <v>30</v>
+      </c>
+      <c r="J9" s="1">
         <v>3</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="K9" s="1">
+        <f>S9*2.5</f>
+        <v>300</v>
+      </c>
+      <c r="L9" s="1" t="str">
+        <f t="shared" ref="L9:P9" si="0">"Item|"&amp;L$6&amp;"|"&amp;$K9</f>
+        <v>Item|1001|300</v>
+      </c>
+      <c r="M9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Item|1002|300</v>
+      </c>
+      <c r="N9" s="1">
+        <f>T9*2.5</f>
+        <v>50</v>
+      </c>
+      <c r="O9" s="1" t="str">
+        <f>"Item|"&amp;O$6&amp;"|"&amp;$N9</f>
+        <v>Item|1003|50</v>
+      </c>
+      <c r="P9" s="1" t="str">
+        <f>"Item|"&amp;P$6&amp;"|"&amp;$N9</f>
+        <v>Item|1004|50</v>
+      </c>
+      <c r="S9" s="1">
+        <v>120</v>
+      </c>
+      <c r="T9" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20</v>
+      </c>
+      <c r="J10" s="1">
+        <v>4</v>
+      </c>
+      <c r="K10" s="1">
+        <f>S10*2.5</f>
+        <v>750</v>
+      </c>
+      <c r="L10" s="1" t="str">
+        <f t="shared" ref="L10:P10" si="1">"Item|"&amp;L$6&amp;"|"&amp;$K10</f>
+        <v>Item|1001|750</v>
+      </c>
+      <c r="M10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Item|1002|750</v>
+      </c>
+      <c r="N10" s="1">
+        <f>T10*2.5</f>
+        <v>125</v>
+      </c>
+      <c r="O10" s="1" t="str">
+        <f>"Item|"&amp;O$6&amp;"|"&amp;$N10</f>
+        <v>Item|1003|125</v>
+      </c>
+      <c r="P10" s="1" t="str">
+        <f>"Item|"&amp;P$6&amp;"|"&amp;$N10</f>
+        <v>Item|1004|125</v>
+      </c>
+      <c r="S10" s="1">
+        <v>300</v>
+      </c>
+      <c r="T10" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="1">
+        <v>21</v>
+      </c>
+      <c r="E11" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="J11" s="1">
+        <v>5</v>
+      </c>
+      <c r="K11" s="1">
+        <f>S11*2.5</f>
+        <v>2000</v>
+      </c>
+      <c r="L11" s="1" t="str">
+        <f t="shared" ref="L11:P11" si="2">"Item|"&amp;L$6&amp;"|"&amp;$K11</f>
+        <v>Item|1001|2000</v>
+      </c>
+      <c r="M11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Item|1002|2000</v>
+      </c>
+      <c r="N11" s="1">
+        <f>T11*2.5</f>
+        <v>300</v>
+      </c>
+      <c r="O11" s="1" t="str">
+        <f>"Item|"&amp;O$6&amp;"|"&amp;$N11</f>
+        <v>Item|1003|300</v>
+      </c>
+      <c r="P11" s="1" t="str">
+        <f>"Item|"&amp;P$6&amp;"|"&amp;$N11</f>
+        <v>Item|1004|300</v>
+      </c>
+      <c r="S11" s="1">
+        <v>800</v>
+      </c>
+      <c r="T11" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12" s="3">
+        <v>30</v>
+      </c>
+      <c r="J12" s="1">
+        <v>6</v>
+      </c>
+      <c r="K12" s="1">
+        <f>S12*2.5</f>
+        <v>5000</v>
+      </c>
+      <c r="L12" s="1" t="str">
+        <f t="shared" ref="L12:P12" si="3">"Item|"&amp;L$6&amp;"|"&amp;$K12</f>
+        <v>Item|1001|5000</v>
+      </c>
+      <c r="M12" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Item|1002|5000</v>
+      </c>
+      <c r="N12" s="1">
+        <f>T12*2.5</f>
+        <v>750</v>
+      </c>
+      <c r="O12" s="1" t="str">
+        <f>"Item|"&amp;O$6&amp;"|"&amp;$N12</f>
+        <v>Item|1003|750</v>
+      </c>
+      <c r="P12" s="1" t="str">
+        <f>"Item|"&amp;P$6&amp;"|"&amp;$N12</f>
+        <v>Item|1004|750</v>
+      </c>
+      <c r="S12" s="1">
+        <v>2000</v>
+      </c>
+      <c r="T12" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>17</v>
+      </c>
+      <c r="E13" s="3">
+        <v>30</v>
+      </c>
+      <c r="J13" s="1">
+        <v>7</v>
+      </c>
+      <c r="N13" s="1">
+        <f>T13*2.5</f>
+        <v>2000</v>
+      </c>
+      <c r="O13" s="1" t="str">
+        <f>"Item|"&amp;O$6&amp;"|"&amp;$N13</f>
+        <v>Item|1003|2000</v>
+      </c>
+      <c r="P13" s="1" t="str">
+        <f>"Item|"&amp;P$6&amp;"|"&amp;$N13</f>
+        <v>Item|1004|2000</v>
+      </c>
+      <c r="T13" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="1">
-        <v>10</v>
+        <v>25</v>
+      </c>
+      <c r="E14" s="3">
+        <v>30</v>
+      </c>
+      <c r="J14" s="1">
+        <v>8</v>
+      </c>
+      <c r="N14" s="1">
+        <f>T14*2.5</f>
+        <v>5000</v>
+      </c>
+      <c r="O14" s="1" t="str">
+        <f>"Item|"&amp;O$6&amp;"|"&amp;$N14</f>
+        <v>Item|1003|5000</v>
+      </c>
+      <c r="P14" s="1" t="str">
+        <f>"Item|"&amp;P$6&amp;"|"&amp;$N14</f>
+        <v>Item|1004|5000</v>
+      </c>
+      <c r="T14" s="1">
+        <v>2000</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1365,7 +1777,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>14</v>
@@ -1373,100 +1785,1154 @@
       <c r="D15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="E15" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>12</v>
       </c>
       <c r="B16" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="1">
+        <v>21</v>
+      </c>
+      <c r="E16" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="L16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>16</v>
+      </c>
+      <c r="E17" s="3">
+        <v>30</v>
+      </c>
+      <c r="L17" s="1">
+        <v>3001</v>
+      </c>
+      <c r="N17" s="1">
+        <v>3002</v>
+      </c>
+      <c r="P17" s="1">
+        <v>3003</v>
+      </c>
+      <c r="R17" s="1">
+        <v>3101</v>
+      </c>
+      <c r="S17" s="1">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>14</v>
       </c>
       <c r="B18" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="E18" s="3">
+        <v>30</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>15</v>
       </c>
       <c r="B19" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="1">
-        <v>10</v>
-      </c>
-      <c r="H19" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="E19" s="3">
+        <v>30</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>16</v>
       </c>
       <c r="B20" s="3">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="3">
+        <v>30</v>
+      </c>
+      <c r="J20" s="1">
+        <v>3</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="3">
+        <v>30</v>
+      </c>
+      <c r="J21" s="1">
+        <v>4</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="1" t="str">
+        <f t="shared" ref="L19:L25" si="4">"Item|"&amp;L$17&amp;"|"&amp;$K21</f>
+        <v>Item|3001|1_2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="3">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="3">
+        <v>20</v>
+      </c>
+      <c r="J22" s="1">
+        <v>5</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Item|3001|2_3</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N22" s="1" t="str">
+        <f>"Item|"&amp;N$17&amp;"|"&amp;$M22</f>
+        <v>Item|3002|1_2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="3">
+        <v>4</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="3">
+        <v>10</v>
+      </c>
+      <c r="J23" s="1">
+        <v>6</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L23" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Item|3001|2_4</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23" s="1" t="str">
+        <f>"Item|"&amp;N$17&amp;"|"&amp;$M23</f>
+        <v>Item|3002|2_3</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P23" s="1" t="str">
+        <f>"Item|"&amp;P$17&amp;"|"&amp;$O23</f>
+        <v>Item|3003|1_2</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1" t="str">
+        <f>"Item|"&amp;S$17&amp;"|"&amp;$Q23</f>
+        <v>Item|3102|2_3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="3">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="3">
+        <v>30</v>
+      </c>
+      <c r="J24" s="1">
+        <v>7</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L24" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Item|3001|3_4</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N24" s="1" t="str">
+        <f>"Item|"&amp;N$17&amp;"|"&amp;$M24</f>
+        <v>Item|3002|2_4</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P24" s="1" t="str">
+        <f>"Item|"&amp;P$17&amp;"|"&amp;$O24</f>
+        <v>Item|3003|2_3</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R24" s="1" t="str">
+        <f>"Item|"&amp;R$17&amp;"|"&amp;$Q24</f>
+        <v>Item|3101|3_4</v>
+      </c>
+      <c r="S24" s="1" t="str">
+        <f>"Item|"&amp;S$17&amp;"|"&amp;$Q24</f>
+        <v>Item|3102|3_4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="B25" s="3">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="3">
+        <v>30</v>
+      </c>
+      <c r="J25" s="1">
         <v>8</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="K25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L25" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Item|3001|3_5</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N25" s="1" t="str">
+        <f>"Item|"&amp;N$17&amp;"|"&amp;$M25</f>
+        <v>Item|3002|3_4</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P25" s="1" t="str">
+        <f>"Item|"&amp;P$17&amp;"|"&amp;$O25</f>
+        <v>Item|3003|2_4</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R25" s="1" t="str">
+        <f>"Item|"&amp;R$17&amp;"|"&amp;$Q25</f>
+        <v>Item|3101|4_6</v>
+      </c>
+      <c r="S25" s="1" t="str">
+        <f>"Item|"&amp;S$17&amp;"|"&amp;$Q25</f>
+        <v>Item|3102|4_6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>22</v>
+      </c>
+      <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1">
+        <v>23</v>
+      </c>
+      <c r="B27" s="3">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="3">
+        <v>30</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="1">
+        <v>24</v>
+      </c>
+      <c r="B28" s="3">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="3">
+        <v>30</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <f>N28*5</f>
+        <v>100</v>
+      </c>
+      <c r="L28" s="1" t="str">
+        <f>"Coin|"&amp;""&amp;$K28</f>
+        <v>Coin|100</v>
+      </c>
+      <c r="N28" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="1">
+        <v>25</v>
+      </c>
+      <c r="B29" s="3">
+        <v>4</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="3">
+        <v>30</v>
+      </c>
+      <c r="J29" s="1">
+        <v>2</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" ref="K29:K35" si="5">N29*5</f>
+        <v>500</v>
+      </c>
+      <c r="L29" s="1" t="str">
+        <f t="shared" ref="L29:L35" si="6">"Coin|"&amp;""&amp;$K29</f>
+        <v>Coin|500</v>
+      </c>
+      <c r="N29" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="1">
+        <v>26</v>
+      </c>
+      <c r="B30" s="3">
+        <v>5</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="3">
+        <v>20</v>
+      </c>
+      <c r="J30" s="1">
+        <v>3</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+      <c r="L30" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Coin|1000</v>
+      </c>
+      <c r="N30" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="1">
+        <v>27</v>
+      </c>
+      <c r="B31" s="3">
+        <v>5</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E31" s="3">
+        <v>30</v>
+      </c>
+      <c r="J31" s="1">
+        <v>4</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="5"/>
+        <v>2500</v>
+      </c>
+      <c r="L31" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Coin|2500</v>
+      </c>
+      <c r="N31" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="1">
+        <v>28</v>
+      </c>
+      <c r="B32" s="3">
+        <v>5</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E32" s="3">
+        <v>30</v>
+      </c>
+      <c r="J32" s="1">
+        <v>5</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="5"/>
+        <v>6000</v>
+      </c>
+      <c r="L32" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Coin|6000</v>
+      </c>
+      <c r="N32" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="1">
+        <v>29</v>
+      </c>
+      <c r="B33" s="3">
+        <v>5</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="3">
+        <v>30</v>
+      </c>
+      <c r="J33" s="1">
+        <v>6</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="5"/>
+        <v>15000</v>
+      </c>
+      <c r="L33" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Coin|15000</v>
+      </c>
+      <c r="N33" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="1">
+        <v>30</v>
+      </c>
+      <c r="B34" s="3">
+        <v>5</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="3">
+        <v>30</v>
+      </c>
+      <c r="J34" s="1">
+        <v>7</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="5"/>
+        <v>25000</v>
+      </c>
+      <c r="L34" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Coin|25000</v>
+      </c>
+      <c r="N34" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="1">
+        <v>31</v>
+      </c>
+      <c r="B35" s="3">
+        <v>5</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="3">
+        <v>30</v>
+      </c>
+      <c r="J35" s="1">
+        <v>8</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="5"/>
+        <v>40000</v>
+      </c>
+      <c r="L35" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Coin|40000</v>
+      </c>
+      <c r="N35" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>32</v>
+      </c>
+      <c r="B36" s="3">
+        <v>5</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>33</v>
+      </c>
+      <c r="B37" s="3">
+        <v>5</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>34</v>
+      </c>
+      <c r="B38" s="3">
+        <v>6</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>35</v>
+      </c>
+      <c r="B39" s="3">
+        <v>6</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>36</v>
+      </c>
+      <c r="B40" s="3">
+        <v>6</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>37</v>
+      </c>
+      <c r="B41" s="3">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>38</v>
+      </c>
+      <c r="B42" s="3">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>39</v>
+      </c>
+      <c r="B43" s="3">
+        <v>6</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>40</v>
+      </c>
+      <c r="B44" s="3">
+        <v>6</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>41</v>
+      </c>
+      <c r="B45" s="3">
+        <v>6</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="3">
         <v>10</v>
       </c>
     </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>42</v>
+      </c>
+      <c r="B46" s="3">
+        <v>6</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>43</v>
+      </c>
+      <c r="B47" s="3">
+        <v>6</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>44</v>
+      </c>
+      <c r="B48" s="3">
+        <v>7</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>45</v>
+      </c>
+      <c r="B49" s="3">
+        <v>7</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>46</v>
+      </c>
+      <c r="B50" s="3">
+        <v>7</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>47</v>
+      </c>
+      <c r="B51" s="3">
+        <v>7</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>48</v>
+      </c>
+      <c r="B52" s="3">
+        <v>7</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>49</v>
+      </c>
+      <c r="B53" s="3">
+        <v>7</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>50</v>
+      </c>
+      <c r="B54" s="3">
+        <v>7</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>51</v>
+      </c>
+      <c r="B55" s="3">
+        <v>7</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>52</v>
+      </c>
+      <c r="B56" s="3">
+        <v>7</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>53</v>
+      </c>
+      <c r="B57" s="3">
+        <v>8</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>54</v>
+      </c>
+      <c r="B58" s="3">
+        <v>8</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>55</v>
+      </c>
+      <c r="B59" s="3">
+        <v>8</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>56</v>
+      </c>
+      <c r="B60" s="3">
+        <v>8</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>57</v>
+      </c>
+      <c r="B61" s="3">
+        <v>8</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
+        <v>58</v>
+      </c>
+      <c r="B62" s="3">
+        <v>8</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E62" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
+        <v>59</v>
+      </c>
+      <c r="B63" s="3">
+        <v>8</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
+        <v>60</v>
+      </c>
+      <c r="B64" s="3">
+        <v>8</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
+        <v>61</v>
+      </c>
+      <c r="B65" s="1">
+        <v>8</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" s="1">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="B5:D56">
+  <sortState ref="B5:E65">
     <sortCondition ref="B5"/>
   </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1489,7 +2955,7 @@
     <row r="1" spans="1:12">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1759,7 +3225,7 @@
     <row r="11" spans="1:12">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1797,10 +3263,10 @@
         <v>1001</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1828,10 +3294,10 @@
         <v>1002</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1870,10 +3336,10 @@
         <v>1003</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1912,10 +3378,10 @@
         <v>1004</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:12">

--- a/Tables/Sources/gameplay/Visitor/VisitorRewardConfig.xlsx
+++ b/Tables/Sources/gameplay/Visitor/VisitorRewardConfig.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -87,27 +87,18 @@
     <t>金牌招募令</t>
   </si>
   <si>
-    <t>Item|1001|50</t>
-  </si>
-  <si>
-    <t>Item|1002|50</t>
-  </si>
-  <si>
-    <t>Coin|100</t>
+    <t>Item|1001|150</t>
+  </si>
+  <si>
+    <t>Item|1002|150</t>
+  </si>
+  <si>
+    <t>Coin|250</t>
   </si>
   <si>
     <t>铜钱</t>
   </si>
   <si>
-    <t>Item|1001|125</t>
-  </si>
-  <si>
-    <t>Item|1002|125</t>
-  </si>
-  <si>
-    <t>Coin|500</t>
-  </si>
-  <si>
     <t>孔雀石</t>
   </si>
   <si>
@@ -123,19 +114,10 @@
     <t>龙鳞</t>
   </si>
   <si>
-    <t>Item|1001|300</t>
-  </si>
-  <si>
-    <t>Item|1002|300</t>
-  </si>
-  <si>
-    <t>Item|1003|50</t>
-  </si>
-  <si>
-    <t>Item|1004|50</t>
-  </si>
-  <si>
-    <t>Coin|1000</t>
+    <t>Item|1003|100</t>
+  </si>
+  <si>
+    <t>Item|1004|100</t>
   </si>
   <si>
     <t>1_2</t>
@@ -147,127 +129,28 @@
     <t>2_4</t>
   </si>
   <si>
-    <t>Item|1001|750</t>
-  </si>
-  <si>
     <t>3_4</t>
   </si>
   <si>
-    <t>Item|1002|750</t>
-  </si>
-  <si>
     <t>3_5</t>
   </si>
   <si>
     <t>4_6</t>
   </si>
   <si>
-    <t>Item|1003|125</t>
-  </si>
-  <si>
-    <t>Item|1004|125</t>
-  </si>
-  <si>
-    <t>Item|3001|1_2</t>
-  </si>
-  <si>
-    <t>Coin|2500</t>
-  </si>
-  <si>
-    <t>Item|1001|2000</t>
-  </si>
-  <si>
-    <t>Item|1002|2000</t>
-  </si>
-  <si>
-    <t>Item|1003|300</t>
-  </si>
-  <si>
-    <t>Item|1004|300</t>
-  </si>
-  <si>
-    <t>Item|3001|2_3</t>
-  </si>
-  <si>
-    <t>Item|3002|1_2</t>
-  </si>
-  <si>
-    <t>Coin|6000</t>
-  </si>
-  <si>
-    <t>Item|1001|5000</t>
-  </si>
-  <si>
-    <t>Item|1002|5000</t>
-  </si>
-  <si>
-    <t>Item|1003|750</t>
-  </si>
-  <si>
-    <t>Item|1004|750</t>
-  </si>
-  <si>
-    <t>Item|3001|2_4</t>
-  </si>
-  <si>
-    <t>Item|3002|2_3</t>
+    <t>Item|3001|3_5</t>
+  </si>
+  <si>
+    <t>Item|3002|2_4</t>
   </si>
   <si>
     <t>Item|3003|1_2</t>
   </si>
   <si>
-    <t>Item|3102|2_3</t>
-  </si>
-  <si>
-    <t>Coin|15000</t>
-  </si>
-  <si>
-    <t>Item|1003|2000</t>
-  </si>
-  <si>
-    <t>Item|1004|2000</t>
-  </si>
-  <si>
-    <t>Item|3001|3_4</t>
-  </si>
-  <si>
-    <t>Item|3002|2_4</t>
-  </si>
-  <si>
-    <t>Item|3003|2_3</t>
-  </si>
-  <si>
-    <t>Item|3102|3_4</t>
-  </si>
-  <si>
-    <t>Item|3101|3_4</t>
-  </si>
-  <si>
-    <t>Coin|25000</t>
-  </si>
-  <si>
-    <t>Item|1003|5000</t>
-  </si>
-  <si>
-    <t>Item|1004|5000</t>
-  </si>
-  <si>
-    <t>Item|3001|3_5</t>
-  </si>
-  <si>
-    <t>Item|3002|3_4</t>
-  </si>
-  <si>
-    <t>Item|3003|2_4</t>
-  </si>
-  <si>
-    <t>Item|3102|4_6</t>
-  </si>
-  <si>
-    <t>Item|3101|4_6</t>
-  </si>
-  <si>
-    <t>Coin|40000</t>
+    <t>Item|3102|3_5</t>
+  </si>
+  <si>
+    <t>Item|3101|3_5</t>
   </si>
   <si>
     <t>Coin</t>
@@ -293,10 +176,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -321,6 +204,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -330,9 +221,39 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -344,17 +265,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,32 +280,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -412,14 +303,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -434,27 +317,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -473,25 +356,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,19 +416,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,43 +470,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,31 +482,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,25 +500,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,17 +565,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,17 +579,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,8 +618,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,28 +639,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -785,10 +668,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -797,130 +680,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1289,7 +1172,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1452,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="1">
-        <f>S7*2.5</f>
+        <f t="shared" ref="K7:K12" si="0">S7*2.5</f>
         <v>50</v>
       </c>
       <c r="L7" s="1" t="str">
@@ -1487,7 +1370,7 @@
         <v>2</v>
       </c>
       <c r="K8" s="1">
-        <f>S8*2.5</f>
+        <f t="shared" si="0"/>
         <v>125</v>
       </c>
       <c r="L8" s="1" t="str">
@@ -1522,27 +1405,27 @@
         <v>3</v>
       </c>
       <c r="K9" s="1">
-        <f>S9*2.5</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="L9" s="1" t="str">
-        <f t="shared" ref="L9:P9" si="0">"Item|"&amp;L$6&amp;"|"&amp;$K9</f>
+        <f t="shared" ref="L9:P9" si="1">"Item|"&amp;L$6&amp;"|"&amp;$K9</f>
         <v>Item|1001|300</v>
       </c>
       <c r="M9" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Item|1002|300</v>
       </c>
       <c r="N9" s="1">
-        <f>T9*2.5</f>
+        <f t="shared" ref="N9:N14" si="2">T9*2.5</f>
         <v>50</v>
       </c>
       <c r="O9" s="1" t="str">
-        <f>"Item|"&amp;O$6&amp;"|"&amp;$N9</f>
+        <f t="shared" ref="O9:O14" si="3">"Item|"&amp;O$6&amp;"|"&amp;$N9</f>
         <v>Item|1003|50</v>
       </c>
       <c r="P9" s="1" t="str">
-        <f>"Item|"&amp;P$6&amp;"|"&amp;$N9</f>
+        <f t="shared" ref="P9:P14" si="4">"Item|"&amp;P$6&amp;"|"&amp;$N9</f>
         <v>Item|1004|50</v>
       </c>
       <c r="S9" s="1">
@@ -1572,27 +1455,27 @@
         <v>4</v>
       </c>
       <c r="K10" s="1">
-        <f>S10*2.5</f>
+        <f t="shared" si="0"/>
         <v>750</v>
       </c>
       <c r="L10" s="1" t="str">
-        <f t="shared" ref="L10:P10" si="1">"Item|"&amp;L$6&amp;"|"&amp;$K10</f>
+        <f t="shared" ref="L10:P10" si="5">"Item|"&amp;L$6&amp;"|"&amp;$K10</f>
         <v>Item|1001|750</v>
       </c>
       <c r="M10" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Item|1002|750</v>
       </c>
       <c r="N10" s="1">
-        <f>T10*2.5</f>
+        <f t="shared" si="2"/>
         <v>125</v>
       </c>
       <c r="O10" s="1" t="str">
-        <f>"Item|"&amp;O$6&amp;"|"&amp;$N10</f>
+        <f t="shared" si="3"/>
         <v>Item|1003|125</v>
       </c>
       <c r="P10" s="1" t="str">
-        <f>"Item|"&amp;P$6&amp;"|"&amp;$N10</f>
+        <f t="shared" si="4"/>
         <v>Item|1004|125</v>
       </c>
       <c r="S10" s="1">
@@ -1618,31 +1501,38 @@
       <c r="E11" s="3">
         <v>10</v>
       </c>
+      <c r="G11" s="1">
+        <v>25</v>
+      </c>
+      <c r="H11" s="1">
+        <f>G11*8</f>
+        <v>200</v>
+      </c>
       <c r="J11" s="1">
         <v>5</v>
       </c>
       <c r="K11" s="1">
-        <f>S11*2.5</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="L11" s="1" t="str">
-        <f t="shared" ref="L11:P11" si="2">"Item|"&amp;L$6&amp;"|"&amp;$K11</f>
+        <f t="shared" ref="L11:P11" si="6">"Item|"&amp;L$6&amp;"|"&amp;$K11</f>
         <v>Item|1001|2000</v>
       </c>
       <c r="M11" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Item|1002|2000</v>
+      </c>
+      <c r="N11" s="1">
         <f t="shared" si="2"/>
-        <v>Item|1002|2000</v>
-      </c>
-      <c r="N11" s="1">
-        <f>T11*2.5</f>
         <v>300</v>
       </c>
       <c r="O11" s="1" t="str">
-        <f>"Item|"&amp;O$6&amp;"|"&amp;$N11</f>
+        <f t="shared" si="3"/>
         <v>Item|1003|300</v>
       </c>
       <c r="P11" s="1" t="str">
-        <f>"Item|"&amp;P$6&amp;"|"&amp;$N11</f>
+        <f t="shared" si="4"/>
         <v>Item|1004|300</v>
       </c>
       <c r="S11" s="1">
@@ -1660,7 +1550,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>16</v>
@@ -1668,31 +1558,38 @@
       <c r="E12" s="3">
         <v>30</v>
       </c>
+      <c r="G12" s="1">
+        <v>25</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" ref="H12:H18" si="7">G12*8</f>
+        <v>200</v>
+      </c>
       <c r="J12" s="1">
         <v>6</v>
       </c>
       <c r="K12" s="1">
-        <f>S12*2.5</f>
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
       <c r="L12" s="1" t="str">
-        <f t="shared" ref="L12:P12" si="3">"Item|"&amp;L$6&amp;"|"&amp;$K12</f>
+        <f t="shared" ref="L12:P12" si="8">"Item|"&amp;L$6&amp;"|"&amp;$K12</f>
         <v>Item|1001|5000</v>
       </c>
       <c r="M12" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Item|1002|5000</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="2"/>
+        <v>750</v>
+      </c>
+      <c r="O12" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Item|1002|5000</v>
-      </c>
-      <c r="N12" s="1">
-        <f>T12*2.5</f>
-        <v>750</v>
-      </c>
-      <c r="O12" s="1" t="str">
-        <f>"Item|"&amp;O$6&amp;"|"&amp;$N12</f>
         <v>Item|1003|750</v>
       </c>
       <c r="P12" s="1" t="str">
-        <f>"Item|"&amp;P$6&amp;"|"&amp;$N12</f>
+        <f t="shared" si="4"/>
         <v>Item|1004|750</v>
       </c>
       <c r="S12" s="1">
@@ -1710,7 +1607,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>17</v>
@@ -1718,19 +1615,26 @@
       <c r="E13" s="3">
         <v>30</v>
       </c>
+      <c r="G13" s="1">
+        <v>25</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
       <c r="J13" s="1">
         <v>7</v>
       </c>
       <c r="N13" s="1">
-        <f>T13*2.5</f>
+        <f t="shared" si="2"/>
         <v>2000</v>
       </c>
       <c r="O13" s="1" t="str">
-        <f>"Item|"&amp;O$6&amp;"|"&amp;$N13</f>
+        <f t="shared" si="3"/>
         <v>Item|1003|2000</v>
       </c>
       <c r="P13" s="1" t="str">
-        <f>"Item|"&amp;P$6&amp;"|"&amp;$N13</f>
+        <f t="shared" si="4"/>
         <v>Item|1004|2000</v>
       </c>
       <c r="T13" s="1">
@@ -1745,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>25</v>
@@ -1753,26 +1657,33 @@
       <c r="E14" s="3">
         <v>30</v>
       </c>
+      <c r="G14" s="1">
+        <v>25</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
       <c r="J14" s="1">
         <v>8</v>
       </c>
       <c r="N14" s="1">
-        <f>T14*2.5</f>
+        <f t="shared" si="2"/>
         <v>5000</v>
       </c>
       <c r="O14" s="1" t="str">
-        <f>"Item|"&amp;O$6&amp;"|"&amp;$N14</f>
+        <f t="shared" si="3"/>
         <v>Item|1003|5000</v>
       </c>
       <c r="P14" s="1" t="str">
-        <f>"Item|"&amp;P$6&amp;"|"&amp;$N14</f>
+        <f t="shared" si="4"/>
         <v>Item|1004|5000</v>
       </c>
       <c r="T14" s="1">
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -1787,6 +1698,13 @@
       </c>
       <c r="E15" s="3">
         <v>20</v>
+      </c>
+      <c r="G15" s="1">
+        <v>25</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="7"/>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1805,20 +1723,27 @@
       <c r="E16" s="3">
         <v>10</v>
       </c>
+      <c r="G16" s="1">
+        <v>25</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
       <c r="L16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="S16" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1829,13 +1754,20 @@
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="3">
         <v>30</v>
+      </c>
+      <c r="G17" s="1">
+        <v>25</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="7"/>
+        <v>200</v>
       </c>
       <c r="L17" s="1">
         <v>3001</v>
@@ -1861,13 +1793,20 @@
         <v>3</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="3">
         <v>30</v>
+      </c>
+      <c r="G18" s="1">
+        <v>25</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="7"/>
+        <v>200</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
@@ -1884,7 +1823,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>18</v>
@@ -1907,7 +1846,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>19</v>
@@ -1930,7 +1869,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>25</v>
@@ -1942,10 +1881,10 @@
         <v>4</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="L21" s="1" t="str">
-        <f t="shared" ref="L19:L25" si="4">"Item|"&amp;L$17&amp;"|"&amp;$K21</f>
+        <f t="shared" ref="L19:L25" si="9">"Item|"&amp;L$17&amp;"|"&amp;$K21</f>
         <v>Item|3001|1_2</v>
       </c>
     </row>
@@ -1969,14 +1908,14 @@
         <v>5</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L22" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>Item|3001|2_3</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="N22" s="1" t="str">
         <f>"Item|"&amp;N$17&amp;"|"&amp;$M22</f>
@@ -2003,30 +1942,29 @@
         <v>6</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="L23" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>Item|3001|2_4</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N23" s="1" t="str">
         <f>"Item|"&amp;N$17&amp;"|"&amp;$M23</f>
         <v>Item|3002|2_3</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="P23" s="1" t="str">
         <f>"Item|"&amp;P$17&amp;"|"&amp;$O23</f>
         <v>Item|3003|1_2</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R23" s="1"/>
+        <v>34</v>
+      </c>
       <c r="S23" s="1" t="str">
         <f>"Item|"&amp;S$17&amp;"|"&amp;$Q23</f>
         <v>Item|3102|2_3</v>
@@ -2040,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>16</v>
@@ -2052,28 +1990,28 @@
         <v>7</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="L24" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>Item|3001|3_4</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="N24" s="1" t="str">
         <f>"Item|"&amp;N$17&amp;"|"&amp;$M24</f>
         <v>Item|3002|2_4</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="P24" s="1" t="str">
         <f>"Item|"&amp;P$17&amp;"|"&amp;$O24</f>
         <v>Item|3003|2_3</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="R24" s="1" t="str">
         <f>"Item|"&amp;R$17&amp;"|"&amp;$Q24</f>
@@ -2092,7 +2030,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>17</v>
@@ -2104,28 +2042,28 @@
         <v>8</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="L25" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>Item|3001|3_5</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="N25" s="1" t="str">
         <f>"Item|"&amp;N$17&amp;"|"&amp;$M25</f>
         <v>Item|3002|3_4</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="P25" s="1" t="str">
         <f>"Item|"&amp;P$17&amp;"|"&amp;$O25</f>
         <v>Item|3003|2_4</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="R25" s="1" t="str">
         <f>"Item|"&amp;R$17&amp;"|"&amp;$Q25</f>
@@ -2144,7 +2082,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>18</v>
@@ -2161,7 +2099,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>19</v>
@@ -2181,10 +2119,10 @@
         <v>4</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E28" s="3">
         <v>30</v>
@@ -2212,7 +2150,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>25</v>
@@ -2224,11 +2162,11 @@
         <v>2</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" ref="K29:K35" si="5">N29*5</f>
+        <f t="shared" ref="K29:K35" si="10">N29*5</f>
         <v>500</v>
       </c>
       <c r="L29" s="1" t="str">
-        <f t="shared" ref="L29:L35" si="6">"Coin|"&amp;""&amp;$K29</f>
+        <f t="shared" ref="L29:L35" si="11">"Coin|"&amp;""&amp;$K29</f>
         <v>Coin|500</v>
       </c>
       <c r="N29" s="1">
@@ -2255,11 +2193,11 @@
         <v>3</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1000</v>
       </c>
       <c r="L30" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>Coin|1000</v>
       </c>
       <c r="N30" s="1">
@@ -2274,7 +2212,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>16</v>
@@ -2286,11 +2224,11 @@
         <v>4</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2500</v>
       </c>
       <c r="L31" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>Coin|2500</v>
       </c>
       <c r="N31" s="1">
@@ -2305,7 +2243,7 @@
         <v>5</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>17</v>
@@ -2317,11 +2255,11 @@
         <v>5</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>6000</v>
       </c>
       <c r="L32" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>Coin|6000</v>
       </c>
       <c r="N32" s="1">
@@ -2336,7 +2274,7 @@
         <v>5</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>18</v>
@@ -2348,11 +2286,11 @@
         <v>6</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>15000</v>
       </c>
       <c r="L33" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>Coin|15000</v>
       </c>
       <c r="N33" s="1">
@@ -2367,7 +2305,7 @@
         <v>5</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>19</v>
@@ -2379,11 +2317,11 @@
         <v>7</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>25000</v>
       </c>
       <c r="L34" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>Coin|25000</v>
       </c>
       <c r="N34" s="1">
@@ -2398,10 +2336,10 @@
         <v>5</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E35" s="3">
         <v>30</v>
@@ -2410,11 +2348,11 @@
         <v>8</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>40000</v>
       </c>
       <c r="L35" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>Coin|40000</v>
       </c>
       <c r="N35" s="1">
@@ -2429,10 +2367,10 @@
         <v>5</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E36" s="3">
         <v>20</v>
@@ -2446,7 +2384,7 @@
         <v>5</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>25</v>
@@ -2480,7 +2418,7 @@
         <v>6</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>16</v>
@@ -2497,7 +2435,7 @@
         <v>6</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>17</v>
@@ -2514,7 +2452,7 @@
         <v>6</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>18</v>
@@ -2531,7 +2469,7 @@
         <v>6</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>19</v>
@@ -2548,10 +2486,10 @@
         <v>6</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E43" s="3">
         <v>30</v>
@@ -2565,10 +2503,10 @@
         <v>6</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E44" s="3">
         <v>20</v>
@@ -2582,10 +2520,10 @@
         <v>6</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E45" s="3">
         <v>10</v>
@@ -2599,10 +2537,10 @@
         <v>6</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E46" s="3">
         <v>10</v>
@@ -2616,7 +2554,7 @@
         <v>6</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>25</v>
@@ -2650,7 +2588,7 @@
         <v>7</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>18</v>
@@ -2667,7 +2605,7 @@
         <v>7</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>19</v>
@@ -2684,10 +2622,10 @@
         <v>7</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E51" s="3">
         <v>30</v>
@@ -2701,10 +2639,10 @@
         <v>7</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E52" s="3">
         <v>20</v>
@@ -2718,10 +2656,10 @@
         <v>7</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E53" s="3">
         <v>10</v>
@@ -2735,10 +2673,10 @@
         <v>7</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E54" s="3">
         <v>10</v>
@@ -2752,10 +2690,10 @@
         <v>7</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E55" s="3">
         <v>10</v>
@@ -2769,7 +2707,7 @@
         <v>7</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>25</v>
@@ -2803,7 +2741,7 @@
         <v>8</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>18</v>
@@ -2820,7 +2758,7 @@
         <v>8</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>19</v>
@@ -2837,10 +2775,10 @@
         <v>8</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E60" s="3">
         <v>30</v>
@@ -2854,10 +2792,10 @@
         <v>8</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E61" s="3">
         <v>20</v>
@@ -2871,10 +2809,10 @@
         <v>8</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E62" s="3">
         <v>10</v>
@@ -2888,10 +2826,10 @@
         <v>8</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E63" s="3">
         <v>10</v>
@@ -2905,10 +2843,10 @@
         <v>8</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E64" s="3">
         <v>10</v>
@@ -2922,7 +2860,7 @@
         <v>8</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>25</v>
@@ -2955,7 +2893,7 @@
     <row r="1" spans="1:12">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3225,7 +3163,7 @@
     <row r="11" spans="1:12">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -3263,7 +3201,7 @@
         <v>1001</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>16</v>
@@ -3294,7 +3232,7 @@
         <v>1002</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>17</v>
@@ -3336,7 +3274,7 @@
         <v>1003</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>18</v>
@@ -3378,7 +3316,7 @@
         <v>1004</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>19</v>

--- a/Tables/Sources/gameplay/Visitor/VisitorRewardConfig.xlsx
+++ b/Tables/Sources/gameplay/Visitor/VisitorRewardConfig.xlsx
@@ -87,13 +87,13 @@
     <t>金牌招募令</t>
   </si>
   <si>
-    <t>Item|1001|150</t>
-  </si>
-  <si>
-    <t>Item|1002|150</t>
-  </si>
-  <si>
-    <t>Coin|250</t>
+    <t>Item|1001|250</t>
+  </si>
+  <si>
+    <t>Item|1002|250</t>
+  </si>
+  <si>
+    <t>Coin|500</t>
   </si>
   <si>
     <t>铜钱</t>
@@ -114,10 +114,10 @@
     <t>龙鳞</t>
   </si>
   <si>
-    <t>Item|1003|100</t>
-  </si>
-  <si>
-    <t>Item|1004|100</t>
+    <t>Item|1003|250</t>
+  </si>
+  <si>
+    <t>Item|1004|250</t>
   </si>
   <si>
     <t>1_2</t>
@@ -176,10 +176,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -197,8 +197,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,7 +243,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,30 +258,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,46 +272,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,6 +295,51 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -356,7 +356,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,25 +428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,31 +446,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,49 +494,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,43 +518,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,20 +567,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,6 +585,56 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,47 +657,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,10 +668,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -680,133 +680,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1170,9 +1170,9 @@
   <dimension ref="A1:T65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Tables/Sources/gameplay/Visitor/VisitorRewardConfig.xlsx
+++ b/Tables/Sources/gameplay/Visitor/VisitorRewardConfig.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$4:$D$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$4:$D$65</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -176,9 +176,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -197,31 +197,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,7 +220,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,13 +243,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,6 +256,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -272,16 +310,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -296,46 +333,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,7 +356,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,7 +410,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,31 +512,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,127 +530,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,30 +561,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,11 +591,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,17 +621,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,16 +647,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -680,133 +680,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1170,9 +1170,9 @@
   <dimension ref="A1:T65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Tables/Sources/gameplay/Visitor/VisitorRewardConfig.xlsx
+++ b/Tables/Sources/gameplay/Visitor/VisitorRewardConfig.xlsx
@@ -176,9 +176,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -197,8 +197,46 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,11 +256,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -234,15 +287,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,55 +318,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,26 +334,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -356,13 +356,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,25 +374,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,31 +392,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,7 +422,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,55 +512,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,25 +524,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,6 +566,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -576,32 +606,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,9 +627,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,17 +654,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,10 +668,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -680,133 +680,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1172,7 +1172,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1329,7 +1329,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
@@ -1364,7 +1364,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J8" s="1">
         <v>2</v>
@@ -1399,7 +1399,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J9" s="1">
         <v>3</v>
@@ -1556,7 +1556,7 @@
         <v>16</v>
       </c>
       <c r="E12" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G12" s="1">
         <v>25</v>
@@ -1613,7 +1613,7 @@
         <v>17</v>
       </c>
       <c r="E13" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G13" s="1">
         <v>25</v>
@@ -1655,7 +1655,7 @@
         <v>25</v>
       </c>
       <c r="E14" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G14" s="1">
         <v>25</v>
@@ -1760,7 +1760,7 @@
         <v>16</v>
       </c>
       <c r="E17" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G17" s="1">
         <v>25</v>
@@ -1799,7 +1799,7 @@
         <v>17</v>
       </c>
       <c r="E18" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G18" s="1">
         <v>25</v>
@@ -1829,7 +1829,7 @@
         <v>18</v>
       </c>
       <c r="E19" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J19" s="1">
         <v>2</v>
@@ -1852,7 +1852,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J20" s="1">
         <v>3</v>
@@ -1875,7 +1875,7 @@
         <v>25</v>
       </c>
       <c r="E21" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J21" s="1">
         <v>4</v>
@@ -2088,7 +2088,7 @@
         <v>18</v>
       </c>
       <c r="E26" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2105,7 +2105,7 @@
         <v>19</v>
       </c>
       <c r="E27" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>25</v>
@@ -2125,7 +2125,7 @@
         <v>26</v>
       </c>
       <c r="E28" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J28" s="1">
         <v>1</v>
@@ -2156,7 +2156,7 @@
         <v>25</v>
       </c>
       <c r="E29" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J29" s="1">
         <v>2</v>
@@ -2218,7 +2218,7 @@
         <v>16</v>
       </c>
       <c r="E31" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J31" s="1">
         <v>4</v>
@@ -2249,7 +2249,7 @@
         <v>17</v>
       </c>
       <c r="E32" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J32" s="1">
         <v>5</v>
@@ -2280,7 +2280,7 @@
         <v>18</v>
       </c>
       <c r="E33" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J33" s="1">
         <v>6</v>
@@ -2311,7 +2311,7 @@
         <v>19</v>
       </c>
       <c r="E34" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J34" s="1">
         <v>7</v>
@@ -2342,7 +2342,7 @@
         <v>26</v>
       </c>
       <c r="E35" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J35" s="1">
         <v>8</v>
@@ -2373,7 +2373,7 @@
         <v>27</v>
       </c>
       <c r="E36" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2390,7 +2390,7 @@
         <v>25</v>
       </c>
       <c r="E37" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2424,7 +2424,7 @@
         <v>16</v>
       </c>
       <c r="E39" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2441,7 +2441,7 @@
         <v>17</v>
       </c>
       <c r="E40" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2458,7 +2458,7 @@
         <v>18</v>
       </c>
       <c r="E41" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2475,7 +2475,7 @@
         <v>19</v>
       </c>
       <c r="E42" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2492,7 +2492,7 @@
         <v>26</v>
       </c>
       <c r="E43" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2509,7 +2509,7 @@
         <v>27</v>
       </c>
       <c r="E44" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2560,7 +2560,7 @@
         <v>25</v>
       </c>
       <c r="E47" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2594,7 +2594,7 @@
         <v>18</v>
       </c>
       <c r="E49" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2611,7 +2611,7 @@
         <v>19</v>
       </c>
       <c r="E50" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2628,7 +2628,7 @@
         <v>26</v>
       </c>
       <c r="E51" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2645,7 +2645,7 @@
         <v>27</v>
       </c>
       <c r="E52" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2713,7 +2713,7 @@
         <v>25</v>
       </c>
       <c r="E56" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2747,7 +2747,7 @@
         <v>18</v>
       </c>
       <c r="E58" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2764,7 +2764,7 @@
         <v>19</v>
       </c>
       <c r="E59" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2781,7 +2781,7 @@
         <v>26</v>
       </c>
       <c r="E60" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2798,7 +2798,7 @@
         <v>27</v>
       </c>
       <c r="E61" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2866,7 +2866,7 @@
         <v>25</v>
       </c>
       <c r="E65" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Visitor/VisitorRewardConfig.xlsx
+++ b/Tables/Sources/gameplay/Visitor/VisitorRewardConfig.xlsx
@@ -11,15 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$4:$D$65</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$4:$D$65</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="77">
   <si>
     <t>ID</t>
   </si>
@@ -87,31 +87,115 @@
     <t>金牌招募令</t>
   </si>
   <si>
+    <t>Item|1001|100</t>
+  </si>
+  <si>
+    <t>Item|1002|100</t>
+  </si>
+  <si>
+    <t>Coin|250</t>
+  </si>
+  <si>
+    <t>铜钱</t>
+  </si>
+  <si>
+    <t>Item|1001|150</t>
+  </si>
+  <si>
+    <t>Item|1002|150</t>
+  </si>
+  <si>
+    <t>Coin|300</t>
+  </si>
+  <si>
+    <t>孔雀石</t>
+  </si>
+  <si>
+    <t>红玛瑙</t>
+  </si>
+  <si>
+    <t>紫龙晶</t>
+  </si>
+  <si>
+    <t>金丝</t>
+  </si>
+  <si>
+    <t>龙鳞</t>
+  </si>
+  <si>
+    <t>Item|1001|200</t>
+  </si>
+  <si>
+    <t>Item|1002|200</t>
+  </si>
+  <si>
+    <t>Item|1003|100</t>
+  </si>
+  <si>
+    <t>Item|1004|100</t>
+  </si>
+  <si>
+    <t>Coin|350</t>
+  </si>
+  <si>
+    <t>1_2</t>
+  </si>
+  <si>
+    <t>2_3</t>
+  </si>
+  <si>
+    <t>2_4</t>
+  </si>
+  <si>
     <t>Item|1001|250</t>
   </si>
   <si>
+    <t>3_4</t>
+  </si>
+  <si>
     <t>Item|1002|250</t>
   </si>
   <si>
+    <t>3_5</t>
+  </si>
+  <si>
+    <t>4_6</t>
+  </si>
+  <si>
+    <t>Item|1003|150</t>
+  </si>
+  <si>
+    <t>Item|1004|150</t>
+  </si>
+  <si>
+    <t>Item|3001|3_5</t>
+  </si>
+  <si>
+    <t>Coin|400</t>
+  </si>
+  <si>
+    <t>Item|1001|300</t>
+  </si>
+  <si>
+    <t>Item|1002|300</t>
+  </si>
+  <si>
+    <t>Item|1003|200</t>
+  </si>
+  <si>
+    <t>Item|1004|200</t>
+  </si>
+  <si>
+    <t>Item|3002|2_4</t>
+  </si>
+  <si>
     <t>Coin|500</t>
   </si>
   <si>
-    <t>铜钱</t>
-  </si>
-  <si>
-    <t>孔雀石</t>
-  </si>
-  <si>
-    <t>红玛瑙</t>
-  </si>
-  <si>
-    <t>紫龙晶</t>
-  </si>
-  <si>
-    <t>金丝</t>
-  </si>
-  <si>
-    <t>龙鳞</t>
+    <t>Item|1001|350</t>
+  </si>
+  <si>
+    <t>Item|1002|350</t>
   </si>
   <si>
     <t>Item|1003|250</t>
@@ -120,37 +204,34 @@
     <t>Item|1004|250</t>
   </si>
   <si>
-    <t>1_2</t>
-  </si>
-  <si>
-    <t>2_3</t>
-  </si>
-  <si>
-    <t>2_4</t>
-  </si>
-  <si>
-    <t>3_4</t>
-  </si>
-  <si>
-    <t>3_5</t>
-  </si>
-  <si>
-    <t>4_6</t>
-  </si>
-  <si>
-    <t>Item|3001|3_5</t>
-  </si>
-  <si>
-    <t>Item|3002|2_4</t>
-  </si>
-  <si>
     <t>Item|3003|1_2</t>
   </si>
   <si>
     <t>Item|3102|3_5</t>
   </si>
   <si>
+    <t>Coin|600</t>
+  </si>
+  <si>
+    <t>Item|1003|300</t>
+  </si>
+  <si>
+    <t>Item|1004|300</t>
+  </si>
+  <si>
     <t>Item|3101|3_5</t>
+  </si>
+  <si>
+    <t>Coin|800</t>
+  </si>
+  <si>
+    <t>Item|1003|350</t>
+  </si>
+  <si>
+    <t>Item|1004|350</t>
+  </si>
+  <si>
+    <t>Coin|1000</t>
   </si>
   <si>
     <t>Coin</t>
@@ -176,8 +257,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -197,14 +278,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -212,31 +285,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,13 +303,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,9 +323,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,6 +377,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -296,31 +393,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,6 +414,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -356,13 +437,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,13 +491,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,43 +551,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,31 +563,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,25 +581,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,31 +605,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,21 +642,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,6 +676,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -621,6 +702,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,26 +738,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,10 +749,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -680,133 +761,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1166,13 +1247,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomLeft" activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1257,7 +1338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" hidden="1" spans="1:16">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1286,7 +1367,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" hidden="1" spans="1:16">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1315,7 +1396,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" hidden="1" spans="1:19">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1350,7 +1431,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" hidden="1" spans="1:19">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1385,7 +1466,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" hidden="1" spans="1:20">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1399,7 +1480,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J9" s="1">
         <v>3</v>
@@ -1435,7 +1516,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" hidden="1" spans="1:20">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1485,7 +1566,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" hidden="1" spans="1:20">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1542,7 +1623,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" hidden="1" spans="1:20">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1550,7 +1631,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>16</v>
@@ -1599,7 +1680,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" hidden="1" spans="1:20">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -1607,7 +1688,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>17</v>
@@ -1641,7 +1722,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" hidden="1" spans="1:20">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -1649,13 +1730,13 @@
         <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G14" s="1">
         <v>25</v>
@@ -1683,7 +1764,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" hidden="1" spans="1:8">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -1707,7 +1788,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" hidden="1" spans="1:19">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -1731,22 +1812,22 @@
         <v>200</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" hidden="1" spans="1:19">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -1754,7 +1835,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>16</v>
@@ -1785,7 +1866,7 @@
         <v>3102</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" hidden="1" spans="1:11">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -1793,7 +1874,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>17</v>
@@ -1823,7 +1904,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>18</v>
@@ -1846,7 +1927,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>19</v>
@@ -1861,7 +1942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" hidden="1" spans="1:12">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -1869,26 +1950,26 @@
         <v>3</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E21" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J21" s="1">
         <v>4</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="L21" s="1" t="str">
         <f t="shared" ref="L19:L25" si="9">"Item|"&amp;L$17&amp;"|"&amp;$K21</f>
         <v>Item|3001|1_2</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" hidden="1" spans="1:14">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1908,21 +1989,21 @@
         <v>5</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L22" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Item|3001|2_3</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N22" s="1" t="str">
         <f>"Item|"&amp;N$17&amp;"|"&amp;$M22</f>
         <v>Item|3002|1_2</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" hidden="1" spans="1:19">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -1942,35 +2023,35 @@
         <v>6</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="L23" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Item|3001|2_4</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="N23" s="1" t="str">
         <f>"Item|"&amp;N$17&amp;"|"&amp;$M23</f>
         <v>Item|3002|2_3</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="P23" s="1" t="str">
         <f>"Item|"&amp;P$17&amp;"|"&amp;$O23</f>
         <v>Item|3003|1_2</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="S23" s="1" t="str">
         <f>"Item|"&amp;S$17&amp;"|"&amp;$Q23</f>
         <v>Item|3102|2_3</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" hidden="1" spans="1:19">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -1978,7 +2059,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>16</v>
@@ -1990,28 +2071,28 @@
         <v>7</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="L24" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Item|3001|3_4</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="N24" s="1" t="str">
         <f>"Item|"&amp;N$17&amp;"|"&amp;$M24</f>
         <v>Item|3002|2_4</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="P24" s="1" t="str">
         <f>"Item|"&amp;P$17&amp;"|"&amp;$O24</f>
         <v>Item|3003|2_3</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="R24" s="1" t="str">
         <f>"Item|"&amp;R$17&amp;"|"&amp;$Q24</f>
@@ -2022,7 +2103,7 @@
         <v>Item|3102|3_4</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" hidden="1" spans="1:19">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -2030,7 +2111,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>17</v>
@@ -2042,28 +2123,28 @@
         <v>8</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="L25" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Item|3001|3_5</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="N25" s="1" t="str">
         <f>"Item|"&amp;N$17&amp;"|"&amp;$M25</f>
         <v>Item|3002|3_4</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="P25" s="1" t="str">
         <f>"Item|"&amp;P$17&amp;"|"&amp;$O25</f>
         <v>Item|3003|2_4</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="R25" s="1" t="str">
         <f>"Item|"&amp;R$17&amp;"|"&amp;$Q25</f>
@@ -2082,7 +2163,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>18</v>
@@ -2099,7 +2180,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>19</v>
@@ -2111,7 +2192,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" hidden="1" spans="1:14">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -2119,10 +2200,10 @@
         <v>4</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E28" s="3">
         <v>20</v>
@@ -2142,7 +2223,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" hidden="1" spans="1:14">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -2150,13 +2231,13 @@
         <v>4</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E29" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J29" s="1">
         <v>2</v>
@@ -2173,7 +2254,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" hidden="1" spans="1:14">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -2204,7 +2285,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" hidden="1" spans="1:14">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -2212,7 +2293,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>16</v>
@@ -2235,7 +2316,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" hidden="1" spans="1:14">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -2243,7 +2324,7 @@
         <v>5</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>17</v>
@@ -2274,7 +2355,7 @@
         <v>5</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>18</v>
@@ -2305,7 +2386,7 @@
         <v>5</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>19</v>
@@ -2328,7 +2409,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" hidden="1" spans="1:14">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -2336,10 +2417,10 @@
         <v>5</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E35" s="3">
         <v>20</v>
@@ -2359,7 +2440,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" hidden="1" spans="1:5">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -2367,16 +2448,16 @@
         <v>5</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E36" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" hidden="1" spans="1:5">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -2384,16 +2465,16 @@
         <v>5</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E37" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" hidden="1" spans="1:5">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -2410,7 +2491,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" hidden="1" spans="1:5">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -2418,7 +2499,7 @@
         <v>6</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>16</v>
@@ -2427,7 +2508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" hidden="1" spans="1:5">
       <c r="A40" s="1">
         <v>36</v>
       </c>
@@ -2435,7 +2516,7 @@
         <v>6</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>17</v>
@@ -2452,7 +2533,7 @@
         <v>6</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>18</v>
@@ -2469,7 +2550,7 @@
         <v>6</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>19</v>
@@ -2478,7 +2559,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" hidden="1" spans="1:5">
       <c r="A43" s="1">
         <v>39</v>
       </c>
@@ -2486,16 +2567,16 @@
         <v>6</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E43" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" hidden="1" spans="1:5">
       <c r="A44" s="1">
         <v>40</v>
       </c>
@@ -2503,16 +2584,16 @@
         <v>6</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E44" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" hidden="1" spans="1:5">
       <c r="A45" s="1">
         <v>41</v>
       </c>
@@ -2520,16 +2601,16 @@
         <v>6</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E45" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" hidden="1" spans="1:5">
       <c r="A46" s="1">
         <v>42</v>
       </c>
@@ -2537,16 +2618,16 @@
         <v>6</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E46" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" hidden="1" spans="1:5">
       <c r="A47" s="1">
         <v>43</v>
       </c>
@@ -2554,16 +2635,16 @@
         <v>6</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E47" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" hidden="1" spans="1:5">
       <c r="A48" s="1">
         <v>44</v>
       </c>
@@ -2588,7 +2669,7 @@
         <v>7</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>18</v>
@@ -2605,7 +2686,7 @@
         <v>7</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>19</v>
@@ -2614,7 +2695,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" hidden="1" spans="1:5">
       <c r="A51" s="1">
         <v>47</v>
       </c>
@@ -2622,16 +2703,16 @@
         <v>7</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E51" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" hidden="1" spans="1:5">
       <c r="A52" s="1">
         <v>48</v>
       </c>
@@ -2639,16 +2720,16 @@
         <v>7</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E52" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" hidden="1" spans="1:5">
       <c r="A53" s="1">
         <v>49</v>
       </c>
@@ -2656,16 +2737,16 @@
         <v>7</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E53" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" hidden="1" spans="1:5">
       <c r="A54" s="1">
         <v>50</v>
       </c>
@@ -2673,16 +2754,16 @@
         <v>7</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E54" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" hidden="1" spans="1:5">
       <c r="A55" s="1">
         <v>51</v>
       </c>
@@ -2690,16 +2771,16 @@
         <v>7</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E55" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" hidden="1" spans="1:5">
       <c r="A56" s="1">
         <v>52</v>
       </c>
@@ -2707,16 +2788,16 @@
         <v>7</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E56" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" hidden="1" spans="1:5">
       <c r="A57" s="1">
         <v>53</v>
       </c>
@@ -2741,7 +2822,7 @@
         <v>8</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>18</v>
@@ -2758,7 +2839,7 @@
         <v>8</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>19</v>
@@ -2767,7 +2848,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" hidden="1" spans="1:5">
       <c r="A60" s="1">
         <v>56</v>
       </c>
@@ -2775,16 +2856,16 @@
         <v>8</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E60" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" hidden="1" spans="1:5">
       <c r="A61" s="1">
         <v>57</v>
       </c>
@@ -2792,16 +2873,16 @@
         <v>8</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E61" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" hidden="1" spans="1:5">
       <c r="A62" s="1">
         <v>58</v>
       </c>
@@ -2809,16 +2890,16 @@
         <v>8</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E62" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" hidden="1" spans="1:5">
       <c r="A63" s="1">
         <v>59</v>
       </c>
@@ -2826,16 +2907,16 @@
         <v>8</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E63" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" hidden="1" spans="1:5">
       <c r="A64" s="1">
         <v>60</v>
       </c>
@@ -2843,16 +2924,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E64" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" hidden="1" spans="1:5">
       <c r="A65" s="1">
         <v>61</v>
       </c>
@@ -2860,16 +2941,25 @@
         <v>8</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E65" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D4:D65">
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter operator="equal" val="银木"/>
+        <customFilter operator="equal" val="云岩"/>
+      </customFilters>
+    </filterColumn>
+    <extLst/>
+  </autoFilter>
   <sortState ref="B5:E65">
     <sortCondition ref="B5"/>
   </sortState>
@@ -2893,7 +2983,7 @@
     <row r="1" spans="1:12">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3163,7 +3253,7 @@
     <row r="11" spans="1:12">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -3201,7 +3291,7 @@
         <v>1001</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>16</v>
@@ -3232,7 +3322,7 @@
         <v>1002</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>17</v>
@@ -3274,7 +3364,7 @@
         <v>1003</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>18</v>
@@ -3316,7 +3406,7 @@
         <v>1004</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>19</v>

--- a/Tables/Sources/gameplay/Visitor/VisitorRewardConfig.xlsx
+++ b/Tables/Sources/gameplay/Visitor/VisitorRewardConfig.xlsx
@@ -257,10 +257,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -278,46 +278,41 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,6 +320,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,17 +361,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,24 +385,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -401,17 +409,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -437,7 +437,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,43 +479,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,31 +503,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,25 +533,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,13 +557,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,31 +605,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,51 +646,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -715,11 +670,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,25 +743,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -761,133 +761,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1247,13 +1247,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:T65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G66" sqref="G66"/>
+      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1338,7 +1338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:16">
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" hidden="1" spans="1:16">
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="7" hidden="1" spans="1:19">
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" hidden="1" spans="1:19">
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:20">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" hidden="1" spans="1:20">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="1:20">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="1:20">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" hidden="1" spans="1:20">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:20">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:8">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" hidden="1" spans="1:19">
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="1:19">
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>3102</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="1:11">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:12">
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>Item|3001|1_2</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="1:14">
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>Item|3002|1_2</v>
       </c>
     </row>
-    <row r="23" hidden="1" spans="1:19">
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>Item|3102|2_3</v>
       </c>
     </row>
-    <row r="24" hidden="1" spans="1:19">
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>Item|3102|3_4</v>
       </c>
     </row>
-    <row r="25" hidden="1" spans="1:19">
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" hidden="1" spans="1:14">
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" hidden="1" spans="1:14">
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:14">
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="31" hidden="1" spans="1:14">
+    <row r="31" spans="1:14">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="32" hidden="1" spans="1:14">
+    <row r="32" spans="1:14">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="35" hidden="1" spans="1:14">
+    <row r="35" spans="1:14">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="1:5">
+    <row r="36" spans="1:5">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:5">
+    <row r="37" spans="1:5">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:5">
+    <row r="38" spans="1:5">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:5">
+    <row r="39" spans="1:5">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:5">
+    <row r="40" spans="1:5">
       <c r="A40" s="1">
         <v>36</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="1:5">
+    <row r="43" spans="1:5">
       <c r="A43" s="1">
         <v>39</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" hidden="1" spans="1:5">
+    <row r="44" spans="1:5">
       <c r="A44" s="1">
         <v>40</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" hidden="1" spans="1:5">
+    <row r="45" spans="1:5">
       <c r="A45" s="1">
         <v>41</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" hidden="1" spans="1:5">
+    <row r="46" spans="1:5">
       <c r="A46" s="1">
         <v>42</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" hidden="1" spans="1:5">
+    <row r="47" spans="1:5">
       <c r="A47" s="1">
         <v>43</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" hidden="1" spans="1:5">
+    <row r="48" spans="1:5">
       <c r="A48" s="1">
         <v>44</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" hidden="1" spans="1:5">
+    <row r="51" spans="1:5">
       <c r="A51" s="1">
         <v>47</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="1:5">
+    <row r="52" spans="1:5">
       <c r="A52" s="1">
         <v>48</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" hidden="1" spans="1:5">
+    <row r="53" spans="1:5">
       <c r="A53" s="1">
         <v>49</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" hidden="1" spans="1:5">
+    <row r="54" spans="1:5">
       <c r="A54" s="1">
         <v>50</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" hidden="1" spans="1:5">
+    <row r="55" spans="1:5">
       <c r="A55" s="1">
         <v>51</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" hidden="1" spans="1:5">
+    <row r="56" spans="1:5">
       <c r="A56" s="1">
         <v>52</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="1:5">
+    <row r="57" spans="1:5">
       <c r="A57" s="1">
         <v>53</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="60" hidden="1" spans="1:5">
+    <row r="60" spans="1:5">
       <c r="A60" s="1">
         <v>56</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" hidden="1" spans="1:5">
+    <row r="61" spans="1:5">
       <c r="A61" s="1">
         <v>57</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" hidden="1" spans="1:5">
+    <row r="62" spans="1:5">
       <c r="A62" s="1">
         <v>58</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" hidden="1" spans="1:5">
+    <row r="63" spans="1:5">
       <c r="A63" s="1">
         <v>59</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" hidden="1" spans="1:5">
+    <row r="64" spans="1:5">
       <c r="A64" s="1">
         <v>60</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" hidden="1" spans="1:5">
+    <row r="65" spans="1:5">
       <c r="A65" s="1">
         <v>61</v>
       </c>
@@ -2951,15 +2951,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D4:D65">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="equal" val="银木"/>
-        <customFilter operator="equal" val="云岩"/>
-      </customFilters>
-    </filterColumn>
-    <extLst/>
-  </autoFilter>
   <sortState ref="B5:E65">
     <sortCondition ref="B5"/>
   </sortState>

--- a/Tables/Sources/gameplay/Visitor/VisitorRewardConfig.xlsx
+++ b/Tables/Sources/gameplay/Visitor/VisitorRewardConfig.xlsx
@@ -168,7 +168,7 @@
     <t>Item|1004|150</t>
   </si>
   <si>
-    <t>Item|3001|3_5</t>
+    <t>Item|3001|2_3</t>
   </si>
   <si>
     <t>Coin|400</t>
@@ -186,7 +186,7 @@
     <t>Item|1004|200</t>
   </si>
   <si>
-    <t>Item|3002|2_4</t>
+    <t>Item|3002|1_2</t>
   </si>
   <si>
     <t>Coin|500</t>
@@ -207,7 +207,7 @@
     <t>Item|3003|1_2</t>
   </si>
   <si>
-    <t>Item|3102|3_5</t>
+    <t>Item|3102|2_3</t>
   </si>
   <si>
     <t>Coin|600</t>
@@ -219,7 +219,7 @@
     <t>Item|1004|300</t>
   </si>
   <si>
-    <t>Item|3101|3_5</t>
+    <t>Item|3101|2_3</t>
   </si>
   <si>
     <t>Coin|800</t>
@@ -278,9 +278,24 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,55 +310,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -354,8 +324,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,9 +354,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,13 +364,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,6 +379,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -409,14 +402,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,7 +437,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,7 +467,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,79 +533,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,25 +563,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,19 +593,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,13 +617,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,17 +646,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,7 +659,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,15 +694,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -709,26 +709,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,16 +734,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -761,133 +761,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1253,7 +1253,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
+      <selection pane="bottomLeft" activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Tables/Sources/gameplay/Visitor/VisitorRewardConfig.xlsx
+++ b/Tables/Sources/gameplay/Visitor/VisitorRewardConfig.xlsx
@@ -257,10 +257,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -278,9 +278,31 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,6 +311,20 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,43 +345,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -354,8 +353,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,9 +384,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,14 +407,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -408,15 +414,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,7 +437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,7 +449,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,37 +539,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,25 +599,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,85 +617,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,11 +646,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,21 +686,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -709,16 +700,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -734,25 +743,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -761,133 +761,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1251,9 +1251,9 @@
   <dimension ref="A1:T65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K65" sqref="K65"/>
+      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Tables/Sources/gameplay/Visitor/VisitorRewardConfig.xlsx
+++ b/Tables/Sources/gameplay/Visitor/VisitorRewardConfig.xlsx
@@ -135,7 +135,7 @@
     <t>Item|1004|100</t>
   </si>
   <si>
-    <t>Coin|350</t>
+    <t>Coin|400</t>
   </si>
   <si>
     <t>1_2</t>
@@ -147,13 +147,13 @@
     <t>2_4</t>
   </si>
   <si>
-    <t>Item|1001|250</t>
+    <t>Item|1001|300</t>
   </si>
   <si>
     <t>3_4</t>
   </si>
   <si>
-    <t>Item|1002|250</t>
+    <t>Item|1002|300</t>
   </si>
   <si>
     <t>3_5</t>
@@ -171,13 +171,13 @@
     <t>Item|3001|2_3</t>
   </si>
   <si>
-    <t>Coin|400</t>
-  </si>
-  <si>
-    <t>Item|1001|300</t>
-  </si>
-  <si>
-    <t>Item|1002|300</t>
+    <t>Coin|600</t>
+  </si>
+  <si>
+    <t>Item|1001|400</t>
+  </si>
+  <si>
+    <t>Item|1002|400</t>
   </si>
   <si>
     <t>Item|1003|200</t>
@@ -189,19 +189,19 @@
     <t>Item|3002|1_2</t>
   </si>
   <si>
-    <t>Coin|500</t>
-  </si>
-  <si>
-    <t>Item|1001|350</t>
-  </si>
-  <si>
-    <t>Item|1002|350</t>
-  </si>
-  <si>
-    <t>Item|1003|250</t>
-  </si>
-  <si>
-    <t>Item|1004|250</t>
+    <t>Coin|800</t>
+  </si>
+  <si>
+    <t>Item|1001|500</t>
+  </si>
+  <si>
+    <t>Item|1002|500</t>
+  </si>
+  <si>
+    <t>Item|1003|300</t>
+  </si>
+  <si>
+    <t>Item|1004|300</t>
   </si>
   <si>
     <t>Item|3003|1_2</t>
@@ -210,28 +210,28 @@
     <t>Item|3102|2_3</t>
   </si>
   <si>
-    <t>Coin|600</t>
-  </si>
-  <si>
-    <t>Item|1003|300</t>
-  </si>
-  <si>
-    <t>Item|1004|300</t>
+    <t>Coin|1000</t>
+  </si>
+  <si>
+    <t>Item|1003|400</t>
+  </si>
+  <si>
+    <t>Item|1004|400</t>
   </si>
   <si>
     <t>Item|3101|2_3</t>
   </si>
   <si>
-    <t>Coin|800</t>
-  </si>
-  <si>
-    <t>Item|1003|350</t>
-  </si>
-  <si>
-    <t>Item|1004|350</t>
-  </si>
-  <si>
-    <t>Coin|1000</t>
+    <t>Coin|1200</t>
+  </si>
+  <si>
+    <t>Item|1003|500</t>
+  </si>
+  <si>
+    <t>Item|1004|500</t>
+  </si>
+  <si>
+    <t>Coin|1500</t>
   </si>
   <si>
     <t>Coin</t>
@@ -259,8 +259,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -276,6 +276,13 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -295,9 +302,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -317,6 +362,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -324,14 +377,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,14 +391,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -362,30 +400,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,23 +415,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,31 +437,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,7 +491,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,133 +611,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,21 +671,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -702,9 +687,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,6 +701,30 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,27 +743,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -761,133 +761,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1251,9 +1251,9 @@
   <dimension ref="A1:T65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Tables/Sources/gameplay/Visitor/VisitorRewardConfig.xlsx
+++ b/Tables/Sources/gameplay/Visitor/VisitorRewardConfig.xlsx
@@ -258,8 +258,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -279,6 +279,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -294,68 +324,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,10 +346,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -391,9 +393,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,22 +417,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,13 +437,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,13 +485,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,55 +599,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,85 +617,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,6 +646,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -657,15 +681,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,17 +714,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,17 +735,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,10 +749,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -761,133 +761,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1248,12 +1248,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T65"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1263,11 +1263,11 @@
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.375" style="1" customWidth="1"/>
-    <col min="6" max="11" width="9" style="1"/>
+    <col min="6" max="8" width="9" style="1"/>
+    <col min="9" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1"/>
     <col min="12" max="13" width="16" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="1"/>
-    <col min="15" max="16" width="16" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="14.25" spans="1:5">
@@ -1338,7 +1338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1354,20 +1354,20 @@
       <c r="E5" s="1">
         <v>20</v>
       </c>
+      <c r="I5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="L5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1383,20 +1383,20 @@
       <c r="E6" s="1">
         <v>10</v>
       </c>
+      <c r="I6" s="1">
+        <v>1001</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1002</v>
+      </c>
       <c r="L6" s="1">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="M6" s="1">
-        <v>1002</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1003</v>
-      </c>
-      <c r="P6" s="1">
         <v>1004</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1412,26 +1412,26 @@
       <c r="E7" s="3">
         <v>40</v>
       </c>
-      <c r="J7" s="1">
+      <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="K7" s="1">
-        <f t="shared" ref="K7:K12" si="0">S7*2.5</f>
+      <c r="H7" s="1">
+        <f t="shared" ref="H7:H12" si="0">P7*2.5</f>
         <v>50</v>
       </c>
-      <c r="L7" s="1" t="str">
-        <f>"Item|"&amp;L$6&amp;"|"&amp;$K7</f>
+      <c r="I7" s="1" t="str">
+        <f>"Item|"&amp;I$6&amp;"|"&amp;$H7</f>
         <v>Item|1001|50</v>
       </c>
-      <c r="M7" s="1" t="str">
-        <f>"Item|"&amp;M$6&amp;"|"&amp;$K7</f>
+      <c r="J7" s="1" t="str">
+        <f>"Item|"&amp;J$6&amp;"|"&amp;$H7</f>
         <v>Item|1002|50</v>
       </c>
-      <c r="S7" s="1">
+      <c r="P7" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1447,26 +1447,26 @@
       <c r="E8" s="3">
         <v>40</v>
       </c>
-      <c r="J8" s="1">
+      <c r="G8" s="1">
         <v>2</v>
       </c>
-      <c r="K8" s="1">
+      <c r="H8" s="1">
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="L8" s="1" t="str">
-        <f>"Item|"&amp;L$6&amp;"|"&amp;$K8</f>
+      <c r="I8" s="1" t="str">
+        <f>"Item|"&amp;I$6&amp;"|"&amp;$H8</f>
         <v>Item|1001|125</v>
       </c>
-      <c r="M8" s="1" t="str">
-        <f>"Item|"&amp;M$6&amp;"|"&amp;$K8</f>
+      <c r="J8" s="1" t="str">
+        <f>"Item|"&amp;J$6&amp;"|"&amp;$H8</f>
         <v>Item|1002|125</v>
       </c>
-      <c r="S8" s="1">
+      <c r="P8" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1482,41 +1482,41 @@
       <c r="E9" s="3">
         <v>30</v>
       </c>
-      <c r="J9" s="1">
+      <c r="G9" s="1">
         <v>3</v>
       </c>
-      <c r="K9" s="1">
+      <c r="H9" s="1">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="L9" s="1" t="str">
-        <f t="shared" ref="L9:P9" si="1">"Item|"&amp;L$6&amp;"|"&amp;$K9</f>
+      <c r="I9" s="1" t="str">
+        <f t="shared" ref="I9:M9" si="1">"Item|"&amp;I$6&amp;"|"&amp;$H9</f>
         <v>Item|1001|300</v>
       </c>
-      <c r="M9" s="1" t="str">
+      <c r="J9" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Item|1002|300</v>
       </c>
-      <c r="N9" s="1">
-        <f t="shared" ref="N9:N14" si="2">T9*2.5</f>
+      <c r="K9" s="1">
+        <f t="shared" ref="K9:K14" si="2">Q9*2.5</f>
         <v>50</v>
       </c>
-      <c r="O9" s="1" t="str">
-        <f t="shared" ref="O9:O14" si="3">"Item|"&amp;O$6&amp;"|"&amp;$N9</f>
+      <c r="L9" s="1" t="str">
+        <f t="shared" ref="L9:L14" si="3">"Item|"&amp;L$6&amp;"|"&amp;$K9</f>
         <v>Item|1003|50</v>
       </c>
-      <c r="P9" s="1" t="str">
-        <f t="shared" ref="P9:P14" si="4">"Item|"&amp;P$6&amp;"|"&amp;$N9</f>
+      <c r="M9" s="1" t="str">
+        <f t="shared" ref="M9:M14" si="4">"Item|"&amp;M$6&amp;"|"&amp;$K9</f>
         <v>Item|1004|50</v>
       </c>
-      <c r="S9" s="1">
+      <c r="P9" s="1">
         <v>120</v>
       </c>
-      <c r="T9" s="1">
+      <c r="Q9" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1532,41 +1532,41 @@
       <c r="E10" s="3">
         <v>20</v>
       </c>
-      <c r="J10" s="1">
+      <c r="G10" s="1">
         <v>4</v>
       </c>
-      <c r="K10" s="1">
+      <c r="H10" s="1">
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
-      <c r="L10" s="1" t="str">
-        <f t="shared" ref="L10:P10" si="5">"Item|"&amp;L$6&amp;"|"&amp;$K10</f>
+      <c r="I10" s="1" t="str">
+        <f t="shared" ref="I10:M10" si="5">"Item|"&amp;I$6&amp;"|"&amp;$H10</f>
         <v>Item|1001|750</v>
       </c>
-      <c r="M10" s="1" t="str">
+      <c r="J10" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Item|1002|750</v>
       </c>
-      <c r="N10" s="1">
+      <c r="K10" s="1">
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
-      <c r="O10" s="1" t="str">
+      <c r="L10" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Item|1003|125</v>
       </c>
-      <c r="P10" s="1" t="str">
+      <c r="M10" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Item|1004|125</v>
       </c>
-      <c r="S10" s="1">
+      <c r="P10" s="1">
         <v>300</v>
       </c>
-      <c r="T10" s="1">
+      <c r="Q10" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1583,47 +1583,40 @@
         <v>10</v>
       </c>
       <c r="G11" s="1">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H11" s="1">
-        <f>G11*8</f>
-        <v>200</v>
-      </c>
-      <c r="J11" s="1">
-        <v>5</v>
-      </c>
-      <c r="K11" s="1">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="L11" s="1" t="str">
-        <f t="shared" ref="L11:P11" si="6">"Item|"&amp;L$6&amp;"|"&amp;$K11</f>
+      <c r="I11" s="1" t="str">
+        <f t="shared" ref="I11:M11" si="6">"Item|"&amp;I$6&amp;"|"&amp;$H11</f>
         <v>Item|1001|2000</v>
       </c>
-      <c r="M11" s="1" t="str">
+      <c r="J11" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Item|1002|2000</v>
       </c>
-      <c r="N11" s="1">
+      <c r="K11" s="1">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="O11" s="1" t="str">
+      <c r="L11" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Item|1003|300</v>
       </c>
-      <c r="P11" s="1" t="str">
+      <c r="M11" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Item|1004|300</v>
       </c>
-      <c r="S11" s="1">
+      <c r="P11" s="1">
         <v>800</v>
       </c>
-      <c r="T11" s="1">
+      <c r="Q11" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1640,47 +1633,40 @@
         <v>40</v>
       </c>
       <c r="G12" s="1">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" ref="H12:H18" si="7">G12*8</f>
-        <v>200</v>
-      </c>
-      <c r="J12" s="1">
-        <v>6</v>
-      </c>
-      <c r="K12" s="1">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="L12" s="1" t="str">
-        <f t="shared" ref="L12:P12" si="8">"Item|"&amp;L$6&amp;"|"&amp;$K12</f>
+      <c r="I12" s="1" t="str">
+        <f t="shared" ref="I12:M12" si="7">"Item|"&amp;I$6&amp;"|"&amp;$H12</f>
         <v>Item|1001|5000</v>
       </c>
-      <c r="M12" s="1" t="str">
-        <f t="shared" si="8"/>
+      <c r="J12" s="1" t="str">
+        <f t="shared" si="7"/>
         <v>Item|1002|5000</v>
       </c>
-      <c r="N12" s="1">
+      <c r="K12" s="1">
         <f t="shared" si="2"/>
         <v>750</v>
       </c>
-      <c r="O12" s="1" t="str">
+      <c r="L12" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Item|1003|750</v>
       </c>
-      <c r="P12" s="1" t="str">
+      <c r="M12" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Item|1004|750</v>
       </c>
-      <c r="S12" s="1">
+      <c r="P12" s="1">
         <v>2000</v>
       </c>
-      <c r="T12" s="1">
+      <c r="Q12" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -1697,32 +1683,25 @@
         <v>40</v>
       </c>
       <c r="G13" s="1">
-        <v>25</v>
-      </c>
-      <c r="H13" s="1">
-        <f t="shared" si="7"/>
-        <v>200</v>
-      </c>
-      <c r="J13" s="1">
         <v>7</v>
       </c>
-      <c r="N13" s="1">
+      <c r="K13" s="1">
         <f t="shared" si="2"/>
         <v>2000</v>
       </c>
-      <c r="O13" s="1" t="str">
+      <c r="L13" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Item|1003|2000</v>
       </c>
-      <c r="P13" s="1" t="str">
+      <c r="M13" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Item|1004|2000</v>
       </c>
-      <c r="T13" s="1">
+      <c r="Q13" s="1">
         <v>800</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -1739,32 +1718,25 @@
         <v>30</v>
       </c>
       <c r="G14" s="1">
-        <v>25</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" si="7"/>
-        <v>200</v>
-      </c>
-      <c r="J14" s="1">
         <v>8</v>
       </c>
-      <c r="N14" s="1">
+      <c r="K14" s="1">
         <f t="shared" si="2"/>
         <v>5000</v>
       </c>
-      <c r="O14" s="1" t="str">
+      <c r="L14" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Item|1003|5000</v>
       </c>
-      <c r="P14" s="1" t="str">
+      <c r="M14" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Item|1004|5000</v>
       </c>
-      <c r="T14" s="1">
+      <c r="Q14" s="1">
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -1780,15 +1752,8 @@
       <c r="E15" s="3">
         <v>20</v>
       </c>
-      <c r="G15" s="1">
-        <v>25</v>
-      </c>
-      <c r="H15" s="1">
-        <f t="shared" si="7"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -1804,30 +1769,23 @@
       <c r="E16" s="3">
         <v>10</v>
       </c>
-      <c r="G16" s="1">
-        <v>25</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" si="7"/>
-        <v>200</v>
-      </c>
-      <c r="L16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="M16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="P16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S16" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -1843,30 +1801,23 @@
       <c r="E17" s="3">
         <v>40</v>
       </c>
-      <c r="G17" s="1">
-        <v>25</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" si="7"/>
-        <v>200</v>
-      </c>
-      <c r="L17" s="1">
+      <c r="I17" s="1">
         <v>3001</v>
       </c>
-      <c r="N17" s="1">
+      <c r="K17" s="1">
         <v>3002</v>
       </c>
+      <c r="M17" s="1">
+        <v>3003</v>
+      </c>
+      <c r="O17" s="1">
+        <v>3101</v>
+      </c>
       <c r="P17" s="1">
-        <v>3003</v>
-      </c>
-      <c r="R17" s="1">
-        <v>3101</v>
-      </c>
-      <c r="S17" s="1">
         <v>3102</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -1883,20 +1834,13 @@
         <v>40</v>
       </c>
       <c r="G18" s="1">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="7"/>
-        <v>200</v>
-      </c>
-      <c r="J18" s="1">
         <v>1</v>
       </c>
-      <c r="K18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -1912,14 +1856,14 @@
       <c r="E19" s="3">
         <v>40</v>
       </c>
-      <c r="J19" s="1">
+      <c r="G19" s="1">
         <v>2</v>
       </c>
-      <c r="K19" s="1">
+      <c r="H19" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -1935,14 +1879,14 @@
       <c r="E20" s="3">
         <v>40</v>
       </c>
-      <c r="J20" s="1">
+      <c r="G20" s="1">
         <v>3</v>
       </c>
-      <c r="K20" s="1">
+      <c r="H20" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -1958,18 +1902,18 @@
       <c r="E21" s="3">
         <v>30</v>
       </c>
-      <c r="J21" s="1">
+      <c r="G21" s="1">
         <v>4</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L21" s="1" t="str">
-        <f t="shared" ref="L19:L25" si="9">"Item|"&amp;L$17&amp;"|"&amp;$K21</f>
+      <c r="I21" s="1" t="str">
+        <f t="shared" ref="I19:I25" si="8">"Item|"&amp;I$17&amp;"|"&amp;$H21</f>
         <v>Item|3001|1_2</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1985,25 +1929,25 @@
       <c r="E22" s="3">
         <v>20</v>
       </c>
-      <c r="J22" s="1">
+      <c r="G22" s="1">
         <v>5</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L22" s="1" t="str">
-        <f t="shared" si="9"/>
+      <c r="I22" s="1" t="str">
+        <f t="shared" si="8"/>
         <v>Item|3001|2_3</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N22" s="1" t="str">
-        <f>"Item|"&amp;N$17&amp;"|"&amp;$M22</f>
+      <c r="K22" s="1" t="str">
+        <f>"Item|"&amp;K$17&amp;"|"&amp;$J22</f>
         <v>Item|3002|1_2</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -2019,39 +1963,39 @@
       <c r="E23" s="3">
         <v>10</v>
       </c>
-      <c r="J23" s="1">
+      <c r="G23" s="1">
         <v>6</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L23" s="1" t="str">
-        <f t="shared" si="9"/>
+      <c r="I23" s="1" t="str">
+        <f t="shared" si="8"/>
         <v>Item|3001|2_4</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N23" s="1" t="str">
-        <f>"Item|"&amp;N$17&amp;"|"&amp;$M23</f>
+      <c r="K23" s="1" t="str">
+        <f>"Item|"&amp;K$17&amp;"|"&amp;$J23</f>
         <v>Item|3002|2_3</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="M23" s="1" t="str">
+        <f>"Item|"&amp;M$17&amp;"|"&amp;$L23</f>
+        <v>Item|3003|1_2</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="P23" s="1" t="str">
-        <f>"Item|"&amp;P$17&amp;"|"&amp;$O23</f>
-        <v>Item|3003|1_2</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S23" s="1" t="str">
-        <f>"Item|"&amp;S$17&amp;"|"&amp;$Q23</f>
+        <f>"Item|"&amp;P$17&amp;"|"&amp;$N23</f>
         <v>Item|3102|2_3</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -2067,43 +2011,43 @@
       <c r="E24" s="3">
         <v>30</v>
       </c>
-      <c r="J24" s="1">
+      <c r="G24" s="1">
         <v>7</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L24" s="1" t="str">
-        <f t="shared" si="9"/>
+      <c r="I24" s="1" t="str">
+        <f t="shared" si="8"/>
         <v>Item|3001|3_4</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N24" s="1" t="str">
-        <f>"Item|"&amp;N$17&amp;"|"&amp;$M24</f>
+      <c r="K24" s="1" t="str">
+        <f>"Item|"&amp;K$17&amp;"|"&amp;$J24</f>
         <v>Item|3002|2_4</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="M24" s="1" t="str">
+        <f>"Item|"&amp;M$17&amp;"|"&amp;$L24</f>
+        <v>Item|3003|2_3</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O24" s="1" t="str">
+        <f>"Item|"&amp;O$17&amp;"|"&amp;$N24</f>
+        <v>Item|3101|3_4</v>
+      </c>
       <c r="P24" s="1" t="str">
-        <f>"Item|"&amp;P$17&amp;"|"&amp;$O24</f>
-        <v>Item|3003|2_3</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R24" s="1" t="str">
-        <f>"Item|"&amp;R$17&amp;"|"&amp;$Q24</f>
-        <v>Item|3101|3_4</v>
-      </c>
-      <c r="S24" s="1" t="str">
-        <f>"Item|"&amp;S$17&amp;"|"&amp;$Q24</f>
+        <f>"Item|"&amp;P$17&amp;"|"&amp;$N24</f>
         <v>Item|3102|3_4</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -2119,39 +2063,39 @@
       <c r="E25" s="3">
         <v>30</v>
       </c>
-      <c r="J25" s="1">
+      <c r="G25" s="1">
         <v>8</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L25" s="1" t="str">
-        <f t="shared" si="9"/>
+      <c r="I25" s="1" t="str">
+        <f t="shared" si="8"/>
         <v>Item|3001|3_5</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N25" s="1" t="str">
-        <f>"Item|"&amp;N$17&amp;"|"&amp;$M25</f>
+      <c r="K25" s="1" t="str">
+        <f>"Item|"&amp;K$17&amp;"|"&amp;$J25</f>
         <v>Item|3002|3_4</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="L25" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="M25" s="1" t="str">
+        <f>"Item|"&amp;M$17&amp;"|"&amp;$L25</f>
+        <v>Item|3003|2_4</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O25" s="1" t="str">
+        <f>"Item|"&amp;O$17&amp;"|"&amp;$N25</f>
+        <v>Item|3101|4_6</v>
+      </c>
       <c r="P25" s="1" t="str">
-        <f>"Item|"&amp;P$17&amp;"|"&amp;$O25</f>
-        <v>Item|3003|2_4</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R25" s="1" t="str">
-        <f>"Item|"&amp;R$17&amp;"|"&amp;$Q25</f>
-        <v>Item|3101|4_6</v>
-      </c>
-      <c r="S25" s="1" t="str">
-        <f>"Item|"&amp;S$17&amp;"|"&amp;$Q25</f>
+        <f>"Item|"&amp;P$17&amp;"|"&amp;$N25</f>
         <v>Item|3102|4_6</v>
       </c>
     </row>
@@ -2172,7 +2116,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -2188,11 +2132,11 @@
       <c r="E27" s="3">
         <v>40</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -2208,22 +2152,22 @@
       <c r="E28" s="3">
         <v>20</v>
       </c>
-      <c r="J28" s="1">
+      <c r="G28" s="1">
         <v>1</v>
       </c>
+      <c r="H28" s="1">
+        <f>K28*5</f>
+        <v>100</v>
+      </c>
+      <c r="I28" s="1" t="str">
+        <f>"Coin|"&amp;""&amp;$H28</f>
+        <v>Coin|100</v>
+      </c>
       <c r="K28" s="1">
-        <f>N28*5</f>
-        <v>100</v>
-      </c>
-      <c r="L28" s="1" t="str">
-        <f>"Coin|"&amp;""&amp;$K28</f>
-        <v>Coin|100</v>
-      </c>
-      <c r="N28" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -2239,22 +2183,22 @@
       <c r="E29" s="3">
         <v>30</v>
       </c>
-      <c r="J29" s="1">
+      <c r="G29" s="1">
         <v>2</v>
       </c>
+      <c r="H29" s="1">
+        <f t="shared" ref="H29:H35" si="9">K29*5</f>
+        <v>500</v>
+      </c>
+      <c r="I29" s="1" t="str">
+        <f t="shared" ref="I29:I35" si="10">"Coin|"&amp;""&amp;$H29</f>
+        <v>Coin|500</v>
+      </c>
       <c r="K29" s="1">
-        <f t="shared" ref="K29:K35" si="10">N29*5</f>
-        <v>500</v>
-      </c>
-      <c r="L29" s="1" t="str">
-        <f t="shared" ref="L29:L35" si="11">"Coin|"&amp;""&amp;$K29</f>
-        <v>Coin|500</v>
-      </c>
-      <c r="N29" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -2270,22 +2214,22 @@
       <c r="E30" s="3">
         <v>20</v>
       </c>
-      <c r="J30" s="1">
+      <c r="G30" s="1">
         <v>3</v>
       </c>
+      <c r="H30" s="1">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+      <c r="I30" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>Coin|1000</v>
+      </c>
       <c r="K30" s="1">
-        <f t="shared" si="10"/>
-        <v>1000</v>
-      </c>
-      <c r="L30" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Coin|1000</v>
-      </c>
-      <c r="N30" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -2301,22 +2245,22 @@
       <c r="E31" s="3">
         <v>20</v>
       </c>
-      <c r="J31" s="1">
+      <c r="G31" s="1">
         <v>4</v>
       </c>
+      <c r="H31" s="1">
+        <f t="shared" si="9"/>
+        <v>2500</v>
+      </c>
+      <c r="I31" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>Coin|2500</v>
+      </c>
       <c r="K31" s="1">
-        <f t="shared" si="10"/>
-        <v>2500</v>
-      </c>
-      <c r="L31" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Coin|2500</v>
-      </c>
-      <c r="N31" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -2332,22 +2276,22 @@
       <c r="E32" s="3">
         <v>20</v>
       </c>
-      <c r="J32" s="1">
+      <c r="G32" s="1">
         <v>5</v>
       </c>
+      <c r="H32" s="1">
+        <f t="shared" si="9"/>
+        <v>6000</v>
+      </c>
+      <c r="I32" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>Coin|6000</v>
+      </c>
       <c r="K32" s="1">
-        <f t="shared" si="10"/>
-        <v>6000</v>
-      </c>
-      <c r="L32" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Coin|6000</v>
-      </c>
-      <c r="N32" s="1">
         <v>1200</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -2363,22 +2307,22 @@
       <c r="E33" s="3">
         <v>40</v>
       </c>
-      <c r="J33" s="1">
+      <c r="G33" s="1">
         <v>6</v>
       </c>
+      <c r="H33" s="1">
+        <f t="shared" si="9"/>
+        <v>15000</v>
+      </c>
+      <c r="I33" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>Coin|15000</v>
+      </c>
       <c r="K33" s="1">
-        <f t="shared" si="10"/>
-        <v>15000</v>
-      </c>
-      <c r="L33" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Coin|15000</v>
-      </c>
-      <c r="N33" s="1">
         <v>3000</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -2394,22 +2338,22 @@
       <c r="E34" s="3">
         <v>40</v>
       </c>
-      <c r="J34" s="1">
+      <c r="G34" s="1">
         <v>7</v>
       </c>
+      <c r="H34" s="1">
+        <f t="shared" si="9"/>
+        <v>25000</v>
+      </c>
+      <c r="I34" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>Coin|25000</v>
+      </c>
       <c r="K34" s="1">
-        <f t="shared" si="10"/>
-        <v>25000</v>
-      </c>
-      <c r="L34" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Coin|25000</v>
-      </c>
-      <c r="N34" s="1">
         <v>5000</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -2425,18 +2369,18 @@
       <c r="E35" s="3">
         <v>20</v>
       </c>
-      <c r="J35" s="1">
+      <c r="G35" s="1">
         <v>8</v>
       </c>
+      <c r="H35" s="1">
+        <f t="shared" si="9"/>
+        <v>40000</v>
+      </c>
+      <c r="I35" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>Coin|40000</v>
+      </c>
       <c r="K35" s="1">
-        <f t="shared" si="10"/>
-        <v>40000</v>
-      </c>
-      <c r="L35" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Coin|40000</v>
-      </c>
-      <c r="N35" s="1">
         <v>8000</v>
       </c>
     </row>

--- a/Tables/Sources/gameplay/Visitor/VisitorRewardConfig.xlsx
+++ b/Tables/Sources/gameplay/Visitor/VisitorRewardConfig.xlsx
@@ -93,7 +93,7 @@
     <t>Item|1002|100</t>
   </si>
   <si>
-    <t>Coin|250</t>
+    <t>Coin|500</t>
   </si>
   <si>
     <t>铜钱</t>
@@ -105,7 +105,7 @@
     <t>Item|1002|150</t>
   </si>
   <si>
-    <t>Coin|300</t>
+    <t>Coin|600</t>
   </si>
   <si>
     <t>孔雀石</t>
@@ -135,7 +135,7 @@
     <t>Item|1004|100</t>
   </si>
   <si>
-    <t>Coin|400</t>
+    <t>Coin|800</t>
   </si>
   <si>
     <t>1_2</t>
@@ -171,7 +171,7 @@
     <t>Item|3001|2_3</t>
   </si>
   <si>
-    <t>Coin|600</t>
+    <t>Coin|1200</t>
   </si>
   <si>
     <t>Item|1001|400</t>
@@ -189,7 +189,7 @@
     <t>Item|3002|1_2</t>
   </si>
   <si>
-    <t>Coin|800</t>
+    <t>Coin|1500</t>
   </si>
   <si>
     <t>Item|1001|500</t>
@@ -210,7 +210,7 @@
     <t>Item|3102|2_3</t>
   </si>
   <si>
-    <t>Coin|1000</t>
+    <t>Coin|1800</t>
   </si>
   <si>
     <t>Item|1003|400</t>
@@ -222,7 +222,7 @@
     <t>Item|3101|2_3</t>
   </si>
   <si>
-    <t>Coin|1200</t>
+    <t>Coin|2100</t>
   </si>
   <si>
     <t>Item|1003|500</t>
@@ -231,7 +231,7 @@
     <t>Item|1004|500</t>
   </si>
   <si>
-    <t>Coin|1500</t>
+    <t>Coin|2500</t>
   </si>
   <si>
     <t>Coin</t>
@@ -258,8 +258,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -279,99 +279,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,6 +290,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -415,6 +331,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -437,19 +437,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,49 +473,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,7 +497,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,13 +569,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,13 +593,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,55 +605,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,32 +655,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,20 +681,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,9 +705,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,10 +749,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -761,133 +761,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1251,9 +1251,9 @@
   <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Tables/Sources/gameplay/Visitor/VisitorRewardConfig.xlsx
+++ b/Tables/Sources/gameplay/Visitor/VisitorRewardConfig.xlsx
@@ -279,7 +279,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,7 +308,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -309,11 +361,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -324,68 +375,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,7 +393,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,9 +408,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -437,7 +437,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,175 +617,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,11 +646,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,35 +687,29 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,16 +730,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,10 +749,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -761,133 +761,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1253,7 +1253,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Tables/Sources/gameplay/Visitor/VisitorRewardConfig.xlsx
+++ b/Tables/Sources/gameplay/Visitor/VisitorRewardConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="84">
   <si>
     <t>ID</t>
   </si>
@@ -93,145 +93,166 @@
     <t>Item|1002|100</t>
   </si>
   <si>
+    <t>Coin|250</t>
+  </si>
+  <si>
+    <t>铜钱</t>
+  </si>
+  <si>
+    <t>Item|1001|120</t>
+  </si>
+  <si>
+    <t>Item|1002|120</t>
+  </si>
+  <si>
+    <t>Coin|300</t>
+  </si>
+  <si>
+    <t>孔雀石</t>
+  </si>
+  <si>
+    <t>红玛瑙</t>
+  </si>
+  <si>
+    <t>紫龙晶</t>
+  </si>
+  <si>
+    <t>金丝</t>
+  </si>
+  <si>
+    <t>龙鳞</t>
+  </si>
+  <si>
+    <t>Item|1001|150</t>
+  </si>
+  <si>
+    <t>Item|1002|150</t>
+  </si>
+  <si>
+    <t>Item|1003|100</t>
+  </si>
+  <si>
+    <t>Item|1004|100</t>
+  </si>
+  <si>
+    <t>Coin|400</t>
+  </si>
+  <si>
+    <t>1_2</t>
+  </si>
+  <si>
+    <t>2_3</t>
+  </si>
+  <si>
+    <t>2_4</t>
+  </si>
+  <si>
+    <t>Item|1001|180</t>
+  </si>
+  <si>
+    <t>3_4</t>
+  </si>
+  <si>
+    <t>Item|1002|180</t>
+  </si>
+  <si>
+    <t>3_5</t>
+  </si>
+  <si>
+    <t>4_6</t>
+  </si>
+  <si>
+    <t>Item|1003|120</t>
+  </si>
+  <si>
+    <t>Item|1004|120</t>
+  </si>
+  <si>
+    <t>Item|3001|2</t>
+  </si>
+  <si>
     <t>Coin|500</t>
   </si>
   <si>
-    <t>铜钱</t>
-  </si>
-  <si>
-    <t>Item|1001|150</t>
-  </si>
-  <si>
-    <t>Item|1002|150</t>
+    <t>Item|1001|240</t>
+  </si>
+  <si>
+    <t>Item|1002|240</t>
+  </si>
+  <si>
+    <t>Item|1003|150</t>
+  </si>
+  <si>
+    <t>Item|1004|150</t>
+  </si>
+  <si>
+    <t>Item|3001|3</t>
+  </si>
+  <si>
+    <t>Item|3002|2</t>
   </si>
   <si>
     <t>Coin|600</t>
   </si>
   <si>
-    <t>孔雀石</t>
-  </si>
-  <si>
-    <t>红玛瑙</t>
-  </si>
-  <si>
-    <t>紫龙晶</t>
-  </si>
-  <si>
-    <t>金丝</t>
-  </si>
-  <si>
-    <t>龙鳞</t>
-  </si>
-  <si>
-    <t>Item|1001|200</t>
-  </si>
-  <si>
-    <t>Item|1002|200</t>
-  </si>
-  <si>
-    <t>Item|1003|100</t>
-  </si>
-  <si>
-    <t>Item|1004|100</t>
+    <t>Item|1001|300</t>
+  </si>
+  <si>
+    <t>Item|1002|300</t>
+  </si>
+  <si>
+    <t>Item|1003|180</t>
+  </si>
+  <si>
+    <t>Item|1004|180</t>
+  </si>
+  <si>
+    <t>Item|3001|4</t>
+  </si>
+  <si>
+    <t>Item|3002|3</t>
+  </si>
+  <si>
+    <t>Item|3003|2</t>
+  </si>
+  <si>
+    <t>Item|3102|2_3</t>
   </si>
   <si>
     <t>Coin|800</t>
   </si>
   <si>
-    <t>1_2</t>
-  </si>
-  <si>
-    <t>2_3</t>
-  </si>
-  <si>
-    <t>2_4</t>
-  </si>
-  <si>
-    <t>Item|1001|300</t>
-  </si>
-  <si>
-    <t>3_4</t>
-  </si>
-  <si>
-    <t>Item|1002|300</t>
-  </si>
-  <si>
-    <t>3_5</t>
-  </si>
-  <si>
-    <t>4_6</t>
-  </si>
-  <si>
-    <t>Item|1003|150</t>
-  </si>
-  <si>
-    <t>Item|1004|150</t>
-  </si>
-  <si>
-    <t>Item|3001|2_3</t>
+    <t>Item|1003|240</t>
+  </si>
+  <si>
+    <t>Item|1004|240</t>
+  </si>
+  <si>
+    <t>Item|3001|5</t>
+  </si>
+  <si>
+    <t>Item|3002|4</t>
+  </si>
+  <si>
+    <t>Item|3003|3</t>
+  </si>
+  <si>
+    <t>Item|3101|2_3</t>
+  </si>
+  <si>
+    <t>Coin|1000</t>
+  </si>
+  <si>
+    <t>Item|1003|300</t>
+  </si>
+  <si>
+    <t>Item|1004|300</t>
+  </si>
+  <si>
+    <t>Item|3002|5</t>
   </si>
   <si>
     <t>Coin|1200</t>
-  </si>
-  <si>
-    <t>Item|1001|400</t>
-  </si>
-  <si>
-    <t>Item|1002|400</t>
-  </si>
-  <si>
-    <t>Item|1003|200</t>
-  </si>
-  <si>
-    <t>Item|1004|200</t>
-  </si>
-  <si>
-    <t>Item|3002|1_2</t>
-  </si>
-  <si>
-    <t>Coin|1500</t>
-  </si>
-  <si>
-    <t>Item|1001|500</t>
-  </si>
-  <si>
-    <t>Item|1002|500</t>
-  </si>
-  <si>
-    <t>Item|1003|300</t>
-  </si>
-  <si>
-    <t>Item|1004|300</t>
-  </si>
-  <si>
-    <t>Item|3003|1_2</t>
-  </si>
-  <si>
-    <t>Item|3102|2_3</t>
-  </si>
-  <si>
-    <t>Coin|1800</t>
-  </si>
-  <si>
-    <t>Item|1003|400</t>
-  </si>
-  <si>
-    <t>Item|1004|400</t>
-  </si>
-  <si>
-    <t>Item|3101|2_3</t>
-  </si>
-  <si>
-    <t>Coin|2100</t>
-  </si>
-  <si>
-    <t>Item|1003|500</t>
-  </si>
-  <si>
-    <t>Item|1004|500</t>
-  </si>
-  <si>
-    <t>Coin|2500</t>
   </si>
   <si>
     <t>Coin</t>
@@ -257,10 +278,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -278,8 +299,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,9 +321,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,7 +337,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,16 +351,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,25 +367,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -393,15 +400,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,14 +440,6 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -437,7 +458,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,73 +518,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,49 +548,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,7 +584,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,19 +638,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,17 +667,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,31 +700,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,16 +731,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,10 +770,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -761,16 +782,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -779,115 +800,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1251,9 +1272,9 @@
   <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomLeft" activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2361,7 +2382,7 @@
         <v>5</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>29</v>
@@ -2392,7 +2413,7 @@
         <v>5</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>30</v>
@@ -2409,7 +2430,7 @@
         <v>5</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>25</v>
@@ -2443,7 +2464,7 @@
         <v>6</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>16</v>
@@ -2460,7 +2481,7 @@
         <v>6</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>17</v>
@@ -2477,7 +2498,7 @@
         <v>6</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>18</v>
@@ -2494,7 +2515,7 @@
         <v>6</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>19</v>
@@ -2511,7 +2532,7 @@
         <v>6</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>29</v>
@@ -2528,7 +2549,7 @@
         <v>6</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>30</v>
@@ -2545,7 +2566,7 @@
         <v>6</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>31</v>
@@ -2562,7 +2583,7 @@
         <v>6</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>33</v>
@@ -2579,7 +2600,7 @@
         <v>6</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>25</v>
@@ -2613,7 +2634,7 @@
         <v>7</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>18</v>
@@ -2630,7 +2651,7 @@
         <v>7</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>19</v>
@@ -2647,7 +2668,7 @@
         <v>7</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>29</v>
@@ -2664,7 +2685,7 @@
         <v>7</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>30</v>
@@ -2681,7 +2702,7 @@
         <v>7</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>31</v>
@@ -2698,7 +2719,7 @@
         <v>7</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>33</v>
@@ -2715,7 +2736,7 @@
         <v>7</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>32</v>
@@ -2732,7 +2753,7 @@
         <v>7</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>25</v>
@@ -2766,7 +2787,7 @@
         <v>8</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>18</v>
@@ -2783,7 +2804,7 @@
         <v>8</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>19</v>
@@ -2800,7 +2821,7 @@
         <v>8</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>29</v>
@@ -2817,7 +2838,7 @@
         <v>8</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>30</v>
@@ -2834,7 +2855,7 @@
         <v>8</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>31</v>
@@ -2851,7 +2872,7 @@
         <v>8</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>33</v>
@@ -2868,7 +2889,7 @@
         <v>8</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>32</v>
@@ -2885,7 +2906,7 @@
         <v>8</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>25</v>
@@ -2918,7 +2939,7 @@
     <row r="1" spans="1:12">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3188,7 +3209,7 @@
     <row r="11" spans="1:12">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -3226,7 +3247,7 @@
         <v>1001</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>16</v>
@@ -3257,7 +3278,7 @@
         <v>1002</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>17</v>
@@ -3299,7 +3320,7 @@
         <v>1003</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>18</v>
@@ -3341,7 +3362,7 @@
         <v>1004</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>19</v>
